--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105277.5997962257</v>
+        <v>-105944.3674634013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4774486.614412558</v>
+        <v>4774486.614412564</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11876059.11802618</v>
+        <v>11876059.11802617</v>
       </c>
     </row>
     <row r="11">
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.19229103765078</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>77.25202564291784</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15.85129314863119</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>77.25202564291784</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>77.25202564291784</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>68.04358418628199</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>77.25202564291786</v>
       </c>
       <c r="H14" t="n">
-        <v>47.00838228999392</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.00853336646771</v>
+        <v>31.49817097108928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.69412006656161</v>
+        <v>20.69412006656155</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>15.85129314863113</v>
       </c>
       <c r="U14" t="n">
-        <v>43.5845741061766</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>77.25202564291786</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>8.381461898016266</v>
+        <v>8.381461898016209</v>
       </c>
       <c r="U15" t="n">
-        <v>30.66260896132992</v>
+        <v>30.66260896132986</v>
       </c>
       <c r="V15" t="n">
-        <v>34.08385862937754</v>
+        <v>34.08385862937749</v>
       </c>
       <c r="W15" t="n">
-        <v>60.13952129098689</v>
+        <v>60.13952129098683</v>
       </c>
       <c r="X15" t="n">
-        <v>10.7478521534459</v>
+        <v>10.74785215344585</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.81922384800092</v>
+        <v>16.81922384800086</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>28.78453934594114</v>
+        <v>28.78453934594108</v>
       </c>
       <c r="T16" t="n">
-        <v>17.17481223885182</v>
+        <v>17.17481223885176</v>
       </c>
       <c r="U16" t="n">
         <v>77.25202564291786</v>
       </c>
       <c r="V16" t="n">
-        <v>38.5439528984252</v>
+        <v>38.54395289842515</v>
       </c>
       <c r="W16" t="n">
         <v>77.25202564291786</v>
       </c>
       <c r="X16" t="n">
-        <v>15.35439312221783</v>
+        <v>15.35439312221777</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.57621052814372</v>
+        <v>10.57621052814366</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G17" t="n">
-        <v>77.25202564291786</v>
+        <v>77.25202564291862</v>
       </c>
       <c r="H17" t="n">
         <v>9.009067783188186</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.1907765520665</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
-        <v>12.30903355541199</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586932</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F20" t="n">
-        <v>65.30278581424665</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
         <v>77.25202564291786</v>
       </c>
       <c r="H20" t="n">
-        <v>9.009067783188243</v>
+        <v>9.009067783188186</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893929</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.38910359268306</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="21">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.1907765520665</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C23" t="n">
-        <v>12.30903355541199</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>33.58244823586932</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F23" t="n">
-        <v>65.30278581424665</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
         <v>77.25202564291786</v>
       </c>
       <c r="H23" t="n">
-        <v>9.009067783188243</v>
+        <v>9.009067783188186</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88625046893929</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.38910359268306</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="24">
@@ -2561,7 +2561,7 @@
         <v>124.8858581146058</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5926105340146</v>
+        <v>158.5926105340147</v>
       </c>
       <c r="F26" t="n">
         <v>190.312948112392</v>
@@ -2573,7 +2573,7 @@
         <v>134.0192300813335</v>
       </c>
       <c r="I26" t="n">
-        <v>27.68729412487087</v>
+        <v>27.6872941248709</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.37288082496478</v>
+        <v>14.37288082496481</v>
       </c>
       <c r="T26" t="n">
-        <v>9.530053907034354</v>
+        <v>9.530053907034382</v>
       </c>
       <c r="U26" t="n">
-        <v>37.26333486457978</v>
+        <v>37.2633348645798</v>
       </c>
       <c r="V26" t="n">
         <v>107.9934820815305</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.90325750311951</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.5824601164832</v>
       </c>
       <c r="T27" t="n">
-        <v>2.060222656419437</v>
+        <v>2.060222656419466</v>
       </c>
       <c r="U27" t="n">
-        <v>24.34136971973309</v>
+        <v>237.2276712473546</v>
       </c>
       <c r="V27" t="n">
-        <v>27.76261938778072</v>
+        <v>27.76261938778075</v>
       </c>
       <c r="W27" t="n">
-        <v>180.2156038336647</v>
+        <v>53.81828204939009</v>
       </c>
       <c r="X27" t="n">
-        <v>4.426612911849077</v>
+        <v>4.426612911849105</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.49798460640409</v>
+        <v>10.49798460640412</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.46330010434431</v>
+        <v>22.46330010434434</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85357299725499</v>
+        <v>10.85357299725502</v>
       </c>
       <c r="U28" t="n">
-        <v>75.76997862487455</v>
+        <v>75.76997862487458</v>
       </c>
       <c r="V28" t="n">
-        <v>32.22271365682838</v>
+        <v>32.2227136568284</v>
       </c>
       <c r="W28" t="n">
-        <v>77.4244055617138</v>
+        <v>77.42440556171383</v>
       </c>
       <c r="X28" t="n">
-        <v>9.033153880621001</v>
+        <v>9.033153880621029</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.25497128654689</v>
+        <v>4.254971286546919</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>161.2009388502119</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3191958535573</v>
+        <v>137.3191958535574</v>
       </c>
       <c r="D29" t="n">
         <v>124.8858581146058</v>
@@ -2810,7 +2810,7 @@
         <v>134.0192300813336</v>
       </c>
       <c r="I29" t="n">
-        <v>27.68729412487093</v>
+        <v>27.68729412487096</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.37288082496485</v>
+        <v>14.37288082496487</v>
       </c>
       <c r="T29" t="n">
-        <v>9.530053907034414</v>
+        <v>9.530053907034439</v>
       </c>
       <c r="U29" t="n">
-        <v>37.26333486457983</v>
+        <v>37.26333486457986</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9934820815305</v>
+        <v>107.9934820815306</v>
       </c>
       <c r="W29" t="n">
         <v>125.0101622981454</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7385510817101</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>95.89188043190543</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4783522015736</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.060222656419494</v>
+        <v>2.060222656419523</v>
       </c>
       <c r="U30" t="n">
-        <v>180.4207999203522</v>
+        <v>24.34136971973317</v>
       </c>
       <c r="V30" t="n">
-        <v>27.76261938778077</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.81828204939012</v>
+        <v>53.81828204939015</v>
       </c>
       <c r="X30" t="n">
-        <v>4.426612911849134</v>
+        <v>4.426612911849162</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.49798460640415</v>
+        <v>10.49798460640417</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.46330010434437</v>
+        <v>22.46330010434439</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85357299725505</v>
+        <v>10.85357299725508</v>
       </c>
       <c r="U31" t="n">
-        <v>75.76997862487461</v>
+        <v>75.76997862487464</v>
       </c>
       <c r="V31" t="n">
-        <v>32.22271365682843</v>
+        <v>32.22271365682846</v>
       </c>
       <c r="W31" t="n">
-        <v>77.42440556171385</v>
+        <v>77.42440556171388</v>
       </c>
       <c r="X31" t="n">
-        <v>9.033153880621057</v>
+        <v>9.033153880621086</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.254971286546947</v>
+        <v>4.254971286546976</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2009388502118</v>
+        <v>161.2009388502119</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3191958535573</v>
+        <v>137.3191958535574</v>
       </c>
       <c r="D32" t="n">
         <v>124.8858581146058</v>
@@ -3047,7 +3047,7 @@
         <v>134.0192300813336</v>
       </c>
       <c r="I32" t="n">
-        <v>27.6872941248709</v>
+        <v>27.68729412487096</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.37288082496482</v>
+        <v>14.37288082496487</v>
       </c>
       <c r="T32" t="n">
-        <v>9.530053907034386</v>
+        <v>9.530053907034439</v>
       </c>
       <c r="U32" t="n">
-        <v>37.2633348645798</v>
+        <v>37.26333486457986</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9934820815305</v>
+        <v>107.9934820815306</v>
       </c>
       <c r="W32" t="n">
         <v>125.0101622981454</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8964127670846</v>
+        <v>146.8964127670847</v>
       </c>
       <c r="Y32" t="n">
         <v>169.3992658908284</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>27.51648778669448</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7385510817101</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1549930878643</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.096745578338602</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.060222656419466</v>
+        <v>2.060222656419523</v>
       </c>
       <c r="U33" t="n">
-        <v>124.9041617000092</v>
+        <v>24.34136971973317</v>
       </c>
       <c r="V33" t="n">
-        <v>27.76261938778075</v>
+        <v>27.7626193877808</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.81828204939015</v>
       </c>
       <c r="X33" t="n">
-        <v>4.426612911849105</v>
+        <v>4.426612911849162</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.49798460640412</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.46330010434434</v>
+        <v>22.46330010434439</v>
       </c>
       <c r="T34" t="n">
-        <v>10.85357299725502</v>
+        <v>10.85357299725508</v>
       </c>
       <c r="U34" t="n">
-        <v>75.76997862487458</v>
+        <v>75.76997862487464</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2227136568284</v>
+        <v>32.22271365682846</v>
       </c>
       <c r="W34" t="n">
-        <v>77.42440556171383</v>
+        <v>77.42440556171388</v>
       </c>
       <c r="X34" t="n">
-        <v>9.033153880621029</v>
+        <v>9.033153880621086</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.254971286546919</v>
+        <v>4.254971286546976</v>
       </c>
     </row>
     <row r="35">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.240474997956962</v>
+        <v>1.240474997956961</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.240474997956962</v>
+        <v>1.240474997956961</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.9781137438245</v>
+        <v>139.9781137438244</v>
       </c>
       <c r="C41" t="n">
-        <v>116.09637074717</v>
+        <v>116.0963707471699</v>
       </c>
       <c r="D41" t="n">
         <v>103.6630330082184</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3697854276273</v>
+        <v>137.3697854276272</v>
       </c>
       <c r="F41" t="n">
         <v>169.0901230060046</v>
@@ -3758,7 +3758,7 @@
         <v>112.7964049749462</v>
       </c>
       <c r="I41" t="n">
-        <v>6.464469018483555</v>
+        <v>6.464469018483499</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.04050975819246</v>
+        <v>16.0405097581924</v>
       </c>
       <c r="V41" t="n">
-        <v>86.77065697514317</v>
+        <v>86.77065697514311</v>
       </c>
       <c r="W41" t="n">
         <v>103.787337191758</v>
       </c>
       <c r="X41" t="n">
-        <v>125.6735876606973</v>
+        <v>125.6735876606972</v>
       </c>
       <c r="Y41" t="n">
         <v>148.176440784441</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.11854461334577</v>
+        <v>3.118544613345713</v>
       </c>
       <c r="V42" t="n">
-        <v>6.539794281393398</v>
+        <v>6.539794281393341</v>
       </c>
       <c r="W42" t="n">
-        <v>32.59545694300274</v>
+        <v>32.59545694300269</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.24047499795699</v>
+        <v>1.240474997956933</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.54715351848723</v>
+        <v>54.54715351848717</v>
       </c>
       <c r="V43" t="n">
-        <v>10.99988855044106</v>
+        <v>10.999888550441</v>
       </c>
       <c r="W43" t="n">
-        <v>56.20158045532648</v>
+        <v>56.20158045532642</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.9781137438245</v>
+        <v>139.9781137438249</v>
       </c>
       <c r="C44" t="n">
-        <v>116.09637074717</v>
+        <v>116.0963707471699</v>
       </c>
       <c r="D44" t="n">
         <v>103.6630330082184</v>
       </c>
       <c r="E44" t="n">
-        <v>137.3697854276273</v>
+        <v>137.3697854276272</v>
       </c>
       <c r="F44" t="n">
         <v>169.0901230060046</v>
       </c>
       <c r="G44" t="n">
-        <v>184.7177325730344</v>
+        <v>184.7177325730341</v>
       </c>
       <c r="H44" t="n">
         <v>112.7964049749462</v>
       </c>
       <c r="I44" t="n">
-        <v>6.464469018483555</v>
+        <v>6.464469018483499</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.04050975819246</v>
+        <v>16.0405097581924</v>
       </c>
       <c r="V44" t="n">
-        <v>86.77065697514317</v>
+        <v>86.77065697514311</v>
       </c>
       <c r="W44" t="n">
         <v>103.787337191758</v>
       </c>
       <c r="X44" t="n">
-        <v>125.6735876606973</v>
+        <v>125.6735876606972</v>
       </c>
       <c r="Y44" t="n">
         <v>148.176440784441</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.11854461334577</v>
+        <v>3.118544613345713</v>
       </c>
       <c r="V45" t="n">
-        <v>6.539794281393398</v>
+        <v>6.539794281393341</v>
       </c>
       <c r="W45" t="n">
-        <v>32.59545694300274</v>
+        <v>32.59545694300269</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.24047499795699</v>
+        <v>1.240474997956933</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.54715351848723</v>
+        <v>54.54715351848717</v>
       </c>
       <c r="V46" t="n">
-        <v>10.99988855044106</v>
+        <v>10.999888550441</v>
       </c>
       <c r="W46" t="n">
-        <v>56.20158045532648</v>
+        <v>56.20158045532642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.2772094542148</v>
+        <v>136.9319970823109</v>
       </c>
       <c r="C11" t="n">
-        <v>162.2448603199543</v>
+        <v>136.9319970823109</v>
       </c>
       <c r="D11" t="n">
-        <v>84.21251118569388</v>
+        <v>136.9319970823109</v>
       </c>
       <c r="E11" t="n">
         <v>84.21251118569388</v>
@@ -5030,7 +5030,7 @@
         <v>84.21251118569388</v>
       </c>
       <c r="G11" t="n">
-        <v>84.21251118569388</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="H11" t="n">
         <v>6.180162051433427</v>
@@ -5045,19 +5045,19 @@
         <v>82.6596674379221</v>
       </c>
       <c r="L11" t="n">
-        <v>82.6596674379221</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="M11" t="n">
-        <v>159.1391728244108</v>
+        <v>235.6186782108994</v>
       </c>
       <c r="N11" t="n">
-        <v>235.6186782108994</v>
+        <v>236.8777383410997</v>
       </c>
       <c r="O11" t="n">
-        <v>235.6186782108994</v>
+        <v>272.9855511681571</v>
       </c>
       <c r="P11" t="n">
-        <v>309.0081025716714</v>
+        <v>272.9855511681571</v>
       </c>
       <c r="Q11" t="n">
         <v>309.0081025716714</v>
@@ -5069,22 +5069,22 @@
         <v>309.0081025716714</v>
       </c>
       <c r="T11" t="n">
-        <v>309.0081025716714</v>
+        <v>292.9966953508318</v>
       </c>
       <c r="U11" t="n">
-        <v>309.0081025716714</v>
+        <v>292.9966953508318</v>
       </c>
       <c r="V11" t="n">
-        <v>240.2772094542148</v>
+        <v>292.9966953508318</v>
       </c>
       <c r="W11" t="n">
-        <v>240.2772094542148</v>
+        <v>292.9966953508318</v>
       </c>
       <c r="X11" t="n">
-        <v>240.2772094542148</v>
+        <v>214.9643462165713</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.2772094542148</v>
+        <v>214.9643462165713</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.69658426090881</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="C12" t="n">
-        <v>54.55302591495099</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="D12" t="n">
-        <v>72.04911455239372</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="E12" t="n">
-        <v>106.4392300941565</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="F12" t="n">
-        <v>153.7034370285919</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="G12" t="n">
-        <v>153.7034370285919</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="H12" t="n">
-        <v>153.7034370285919</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="I12" t="n">
-        <v>153.7034370285919</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="J12" t="n">
-        <v>153.7034370285919</v>
+        <v>78.4054277949305</v>
       </c>
       <c r="K12" t="n">
-        <v>153.7034370285919</v>
+        <v>78.4054277949305</v>
       </c>
       <c r="L12" t="n">
-        <v>153.7034370285919</v>
+        <v>78.4054277949305</v>
       </c>
       <c r="M12" t="n">
-        <v>153.7034370285919</v>
+        <v>78.4054277949305</v>
       </c>
       <c r="N12" t="n">
-        <v>153.7034370285919</v>
+        <v>92.15977462570986</v>
       </c>
       <c r="O12" t="n">
-        <v>153.7034370285919</v>
+        <v>168.6392800121985</v>
       </c>
       <c r="P12" t="n">
-        <v>153.7034370285919</v>
+        <v>168.6392800121985</v>
       </c>
       <c r="Q12" t="n">
-        <v>153.7034370285919</v>
+        <v>168.6392800121985</v>
       </c>
       <c r="R12" t="n">
-        <v>153.7034370285919</v>
+        <v>168.6392800121985</v>
       </c>
       <c r="S12" t="n">
         <v>168.6392800121985</v>
@@ -5179,46 +5179,46 @@
         <v>6.180162051433427</v>
       </c>
       <c r="D13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="E13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="F13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="G13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="H13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="I13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="J13" t="n">
-        <v>41.02608937035026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="K13" t="n">
-        <v>41.02608937035026</v>
+        <v>76.42535443719551</v>
       </c>
       <c r="L13" t="n">
-        <v>117.5055947568389</v>
+        <v>76.42535443719551</v>
       </c>
       <c r="M13" t="n">
-        <v>117.5055947568389</v>
+        <v>99.65442315538438</v>
       </c>
       <c r="N13" t="n">
-        <v>193.9851001433276</v>
+        <v>176.133928541873</v>
       </c>
       <c r="O13" t="n">
-        <v>193.9851001433276</v>
+        <v>176.133928541873</v>
       </c>
       <c r="P13" t="n">
-        <v>193.9851001433276</v>
+        <v>236.7377723597562</v>
       </c>
       <c r="Q13" t="n">
-        <v>270.4646055298163</v>
+        <v>273.7942624750854</v>
       </c>
       <c r="R13" t="n">
         <v>273.7942624750854</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
       <c r="C14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
       <c r="D14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
       <c r="E14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
       <c r="F14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
       <c r="G14" t="n">
-        <v>88.01543039129368</v>
+        <v>37.99649636566502</v>
       </c>
       <c r="H14" t="n">
-        <v>40.53221595695637</v>
+        <v>37.99649636566502</v>
       </c>
       <c r="I14" t="n">
         <v>6.180162051433428</v>
       </c>
       <c r="J14" t="n">
-        <v>6.180162051433428</v>
+        <v>43.46177358514797</v>
       </c>
       <c r="K14" t="n">
-        <v>6.180162051433428</v>
+        <v>43.46177358514797</v>
       </c>
       <c r="L14" t="n">
-        <v>6.180162051433428</v>
+        <v>119.9412789716366</v>
       </c>
       <c r="M14" t="n">
-        <v>43.46177358514797</v>
+        <v>196.4207843581253</v>
       </c>
       <c r="N14" t="n">
-        <v>119.9412789716366</v>
+        <v>196.4207843581253</v>
       </c>
       <c r="O14" t="n">
-        <v>156.0490917986941</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="P14" t="n">
         <v>232.5285971851827</v>
@@ -5306,22 +5306,22 @@
         <v>288.104950989286</v>
       </c>
       <c r="T14" t="n">
-        <v>288.104950989286</v>
+        <v>272.0935437684465</v>
       </c>
       <c r="U14" t="n">
-        <v>244.0801286598146</v>
+        <v>272.0935437684465</v>
       </c>
       <c r="V14" t="n">
-        <v>166.0477795255541</v>
+        <v>194.061194634186</v>
       </c>
       <c r="W14" t="n">
-        <v>166.0477795255541</v>
+        <v>194.061194634186</v>
       </c>
       <c r="X14" t="n">
-        <v>166.0477795255541</v>
+        <v>194.061194634186</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.0477795255541</v>
+        <v>116.0288454999255</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5331,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.38451323431596</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="C15" t="n">
-        <v>45.24095488835815</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="D15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="E15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="F15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="G15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="H15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="I15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="J15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="K15" t="n">
-        <v>92.15977462570984</v>
+        <v>35.69658426090886</v>
       </c>
       <c r="L15" t="n">
-        <v>92.15977462570984</v>
+        <v>92.1597746257095</v>
       </c>
       <c r="M15" t="n">
-        <v>92.15977462570984</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="N15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="O15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="P15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="R15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="S15" t="n">
-        <v>168.6392800121985</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="T15" t="n">
-        <v>160.1731568828892</v>
+        <v>160.1731568828889</v>
       </c>
       <c r="U15" t="n">
-        <v>129.2008245987175</v>
+        <v>129.2008245987173</v>
       </c>
       <c r="V15" t="n">
-        <v>94.77268456904324</v>
+        <v>94.77268456904307</v>
       </c>
       <c r="W15" t="n">
-        <v>34.02569336602618</v>
+        <v>34.02569336602606</v>
       </c>
       <c r="X15" t="n">
-        <v>23.16927704941415</v>
+        <v>23.1692770494141</v>
       </c>
       <c r="Y15" t="n">
         <v>6.180162051433428</v>
@@ -5413,70 +5413,70 @@
         <v>6.180162051433428</v>
       </c>
       <c r="C16" t="n">
-        <v>6.180162051433428</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="D16" t="n">
-        <v>66.94874996639427</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="E16" t="n">
-        <v>66.94874996639427</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="F16" t="n">
-        <v>133.9105482332965</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="G16" t="n">
-        <v>171.401216930242</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="H16" t="n">
-        <v>171.401216930242</v>
+        <v>45.88696455234531</v>
       </c>
       <c r="I16" t="n">
-        <v>171.401216930242</v>
+        <v>87.33302957529511</v>
       </c>
       <c r="J16" t="n">
-        <v>171.401216930242</v>
+        <v>87.33302957529511</v>
       </c>
       <c r="K16" t="n">
-        <v>171.401216930242</v>
+        <v>163.8125349617838</v>
       </c>
       <c r="L16" t="n">
-        <v>247.8807223167307</v>
+        <v>193.9851001433272</v>
       </c>
       <c r="M16" t="n">
-        <v>247.8807223167307</v>
+        <v>193.9851001433272</v>
       </c>
       <c r="N16" t="n">
-        <v>270.4646055298163</v>
+        <v>270.4646055298159</v>
       </c>
       <c r="O16" t="n">
-        <v>270.4646055298163</v>
+        <v>270.4646055298159</v>
       </c>
       <c r="P16" t="n">
-        <v>270.4646055298163</v>
+        <v>270.4646055298159</v>
       </c>
       <c r="Q16" t="n">
-        <v>270.4646055298163</v>
+        <v>270.4646055298159</v>
       </c>
       <c r="R16" t="n">
-        <v>273.7942624750854</v>
+        <v>273.7942624750851</v>
       </c>
       <c r="S16" t="n">
-        <v>244.718970206458</v>
+        <v>244.7189702064578</v>
       </c>
       <c r="T16" t="n">
-        <v>227.3706750156986</v>
+        <v>227.3706750156984</v>
       </c>
       <c r="U16" t="n">
-        <v>149.3383258814381</v>
+        <v>149.3383258814379</v>
       </c>
       <c r="V16" t="n">
-        <v>110.405040125453</v>
+        <v>110.4050401254529</v>
       </c>
       <c r="W16" t="n">
-        <v>32.37269099119257</v>
+        <v>32.37269099119246</v>
       </c>
       <c r="X16" t="n">
-        <v>16.86320298895234</v>
+        <v>16.86320298895228</v>
       </c>
       <c r="Y16" t="n">
         <v>6.180162051433428</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.5069605376423</v>
+        <v>205.5069605376424</v>
       </c>
       <c r="C17" t="n">
-        <v>193.0735933099535</v>
+        <v>193.0735933099536</v>
       </c>
       <c r="D17" t="n">
         <v>193.1966544516577</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2749895669412</v>
+        <v>159.2749895669413</v>
       </c>
       <c r="F17" t="n">
-        <v>93.31257965356093</v>
+        <v>93.31257965356099</v>
       </c>
       <c r="G17" t="n">
         <v>15.28023051930028</v>
@@ -5513,46 +5513,46 @@
         <v>82.65966743792211</v>
       </c>
       <c r="J17" t="n">
-        <v>82.65966743792211</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="K17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="L17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="M17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="N17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="O17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.1391728244108</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="R17" t="n">
-        <v>159.1391728244108</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="S17" t="n">
-        <v>215.682083770734</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="T17" t="n">
-        <v>215.682083770734</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="U17" t="n">
-        <v>292.1615891572227</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="V17" t="n">
         <v>309.0081025716714</v>
       </c>
       <c r="W17" t="n">
-        <v>309.0081025716714</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="X17" t="n">
         <v>286.9007788656722</v>
@@ -5729,10 +5729,10 @@
         <v>205.5069605376424</v>
       </c>
       <c r="C20" t="n">
-        <v>193.0735933099537</v>
+        <v>193.0735933099535</v>
       </c>
       <c r="D20" t="n">
-        <v>193.1966544516578</v>
+        <v>193.1966544516577</v>
       </c>
       <c r="E20" t="n">
         <v>159.2749895669413</v>
@@ -5741,13 +5741,13 @@
         <v>93.31257965356082</v>
       </c>
       <c r="G20" t="n">
-        <v>15.28023051930034</v>
+        <v>15.28023051930028</v>
       </c>
       <c r="H20" t="n">
         <v>6.180162051433428</v>
       </c>
       <c r="I20" t="n">
-        <v>6.180162051433428</v>
+        <v>79.56958641220538</v>
       </c>
       <c r="J20" t="n">
         <v>79.56958641220538</v>
@@ -5762,7 +5762,7 @@
         <v>79.56958641220538</v>
       </c>
       <c r="N20" t="n">
-        <v>79.56958641220538</v>
+        <v>156.0490917986941</v>
       </c>
       <c r="O20" t="n">
         <v>156.0490917986941</v>
@@ -5771,16 +5771,16 @@
         <v>156.0490917986941</v>
       </c>
       <c r="Q20" t="n">
-        <v>156.0490917986941</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="R20" t="n">
-        <v>156.0490917986941</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="S20" t="n">
-        <v>156.0490917986941</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="T20" t="n">
-        <v>232.5285971851827</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="U20" t="n">
         <v>309.0081025716714</v>
@@ -5795,7 +5795,7 @@
         <v>286.9007788656722</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.0633004892246</v>
+        <v>242.0633004892247</v>
       </c>
     </row>
     <row r="21">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.5069605376423</v>
+        <v>205.5069605376424</v>
       </c>
       <c r="C23" t="n">
-        <v>193.0735933099534</v>
+        <v>193.0735933099535</v>
       </c>
       <c r="D23" t="n">
-        <v>193.1966544516575</v>
+        <v>193.1966544516577</v>
       </c>
       <c r="E23" t="n">
-        <v>159.2749895669409</v>
+        <v>159.2749895669413</v>
       </c>
       <c r="F23" t="n">
-        <v>93.31257965356065</v>
+        <v>93.31257965356082</v>
       </c>
       <c r="G23" t="n">
-        <v>15.28023051930034</v>
+        <v>15.28023051930028</v>
       </c>
       <c r="H23" t="n">
         <v>6.180162051433428</v>
       </c>
       <c r="I23" t="n">
-        <v>6.180162051433428</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="J23" t="n">
-        <v>6.180162051433428</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="K23" t="n">
-        <v>6.180162051433428</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="L23" t="n">
-        <v>6.180162051433428</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="M23" t="n">
-        <v>62.7230729977567</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="N23" t="n">
-        <v>62.7230729977567</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="O23" t="n">
-        <v>139.2025783842454</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="P23" t="n">
-        <v>139.2025783842454</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.2025783842454</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="R23" t="n">
-        <v>139.2025783842454</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="S23" t="n">
-        <v>139.2025783842454</v>
+        <v>156.0490917986941</v>
       </c>
       <c r="T23" t="n">
-        <v>215.6820837707341</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="U23" t="n">
-        <v>292.1615891572227</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="V23" t="n">
         <v>309.0081025716714</v>
@@ -6029,10 +6029,10 @@
         <v>309.0081025716714</v>
       </c>
       <c r="X23" t="n">
-        <v>286.9007788656721</v>
+        <v>286.9007788656722</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.0633004892246</v>
+        <v>242.0633004892247</v>
       </c>
     </row>
     <row r="24">
@@ -6203,22 +6203,22 @@
         <v>1024.727917058218</v>
       </c>
       <c r="C26" t="n">
-        <v>886.0216586202813</v>
+        <v>886.0216586202812</v>
       </c>
       <c r="D26" t="n">
         <v>759.8743271913866</v>
       </c>
       <c r="E26" t="n">
-        <v>599.6797710964223</v>
+        <v>599.6797710964222</v>
       </c>
       <c r="F26" t="n">
-        <v>407.4444699727942</v>
+        <v>407.444469972794</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4237046400452</v>
+        <v>199.423704640045</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0507449619305</v>
+        <v>64.05074496193053</v>
       </c>
       <c r="I26" t="n">
         <v>36.08378119943467</v>
@@ -6227,7 +6227,7 @@
         <v>171.7780553930116</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3003342987346</v>
+        <v>377.3003342987345</v>
       </c>
       <c r="L26" t="n">
         <v>636.5461568246883</v>
@@ -6245,7 +6245,7 @@
         <v>1662.508410976687</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.660770564378</v>
+        <v>1785.660770564379</v>
       </c>
       <c r="R26" t="n">
         <v>1804.189059971734</v>
@@ -6254,7 +6254,7 @@
         <v>1789.670998532375</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.044681454563</v>
+        <v>1780.044681454562</v>
       </c>
       <c r="U26" t="n">
         <v>1742.404949268118</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>409.7191465525926</v>
+        <v>209.6469850780202</v>
       </c>
       <c r="C27" t="n">
-        <v>409.7191465525926</v>
+        <v>209.6469850780202</v>
       </c>
       <c r="D27" t="n">
-        <v>248.9390303136244</v>
+        <v>209.6469850780202</v>
       </c>
       <c r="E27" t="n">
-        <v>248.9390303136244</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="F27" t="n">
-        <v>88.5113140308685</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="G27" t="n">
-        <v>88.5113140308685</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="H27" t="n">
-        <v>88.5113140308685</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="I27" t="n">
-        <v>88.5113140308685</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="J27" t="n">
         <v>36.08378119943467</v>
       </c>
       <c r="K27" t="n">
-        <v>75.01482251945473</v>
+        <v>75.01482251945475</v>
       </c>
       <c r="L27" t="n">
-        <v>75.01482251945473</v>
+        <v>193.6489542977307</v>
       </c>
       <c r="M27" t="n">
-        <v>258.2099229116599</v>
+        <v>376.8440546899359</v>
       </c>
       <c r="N27" t="n">
-        <v>443.6455063614388</v>
+        <v>528.4149928414677</v>
       </c>
       <c r="O27" t="n">
-        <v>576.7722995835279</v>
+        <v>661.5417860635567</v>
       </c>
       <c r="P27" t="n">
-        <v>661.5417860635533</v>
+        <v>661.5417860635567</v>
       </c>
       <c r="Q27" t="n">
-        <v>661.5417860635533</v>
+        <v>661.5417860635567</v>
       </c>
       <c r="R27" t="n">
-        <v>661.5417860635533</v>
+        <v>661.5417860635567</v>
       </c>
       <c r="S27" t="n">
-        <v>661.5417860635533</v>
+        <v>548.8322303903415</v>
       </c>
       <c r="T27" t="n">
-        <v>659.4607530772711</v>
+        <v>546.7511974040592</v>
       </c>
       <c r="U27" t="n">
-        <v>634.8735109361265</v>
+        <v>307.127287053196</v>
       </c>
       <c r="V27" t="n">
-        <v>606.8304610494794</v>
+        <v>279.0842371665488</v>
       </c>
       <c r="W27" t="n">
-        <v>424.7944975811312</v>
+        <v>224.7223361065588</v>
       </c>
       <c r="X27" t="n">
-        <v>420.3231714075463</v>
+        <v>220.2510099329739</v>
       </c>
       <c r="Y27" t="n">
-        <v>409.7191465525926</v>
+        <v>209.6469850780202</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>103.1103959635764</v>
       </c>
       <c r="E28" t="n">
-        <v>173.608454675819</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="F28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="G28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="H28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="I28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="J28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="K28" t="n">
-        <v>175.6285194306501</v>
+        <v>103.1103959635764</v>
       </c>
       <c r="L28" t="n">
-        <v>175.6285194306501</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="M28" t="n">
-        <v>175.6285194306501</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="N28" t="n">
-        <v>175.6285194306501</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="O28" t="n">
-        <v>175.6285194306501</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="P28" t="n">
-        <v>175.6285194306501</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.8618510536553</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="R28" t="n">
-        <v>270.4495348481053</v>
+        <v>270.4495348481055</v>
       </c>
       <c r="S28" t="n">
-        <v>247.759332722505</v>
+        <v>247.7593327225052</v>
       </c>
       <c r="T28" t="n">
-        <v>236.7961276747727</v>
+        <v>236.7961276747728</v>
       </c>
       <c r="U28" t="n">
-        <v>160.260795730455</v>
+        <v>160.2607957304551</v>
       </c>
       <c r="V28" t="n">
-        <v>127.712600117497</v>
+        <v>127.7126001174971</v>
       </c>
       <c r="W28" t="n">
-        <v>49.50612985313961</v>
+        <v>49.50612985313967</v>
       </c>
       <c r="X28" t="n">
-        <v>40.38173199392648</v>
+        <v>40.38173199392651</v>
       </c>
       <c r="Y28" t="n">
         <v>36.08378119943467</v>
@@ -6440,46 +6440,46 @@
         <v>1024.727917058218</v>
       </c>
       <c r="C29" t="n">
-        <v>886.0216586202808</v>
+        <v>886.0216586202812</v>
       </c>
       <c r="D29" t="n">
-        <v>759.8743271913861</v>
+        <v>759.8743271913867</v>
       </c>
       <c r="E29" t="n">
-        <v>599.6797710964217</v>
+        <v>599.6797710964223</v>
       </c>
       <c r="F29" t="n">
-        <v>407.4444699727935</v>
+        <v>407.444469972794</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4237046400452</v>
+        <v>199.4237046400449</v>
       </c>
       <c r="H29" t="n">
-        <v>64.05074496193056</v>
+        <v>64.05074496193059</v>
       </c>
       <c r="I29" t="n">
         <v>36.08378119943467</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7780553930115</v>
+        <v>171.7780553930116</v>
       </c>
       <c r="K29" t="n">
         <v>377.3003342987344</v>
       </c>
       <c r="L29" t="n">
-        <v>636.5461568246881</v>
+        <v>636.5461568246885</v>
       </c>
       <c r="M29" t="n">
-        <v>930.132224948067</v>
+        <v>930.1322249480675</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.216110876224</v>
+        <v>1218.216110876225</v>
       </c>
       <c r="O29" t="n">
         <v>1465.081362215627</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.508410976686</v>
+        <v>1662.508410976687</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.660770564379</v>
@@ -6491,16 +6491,16 @@
         <v>1789.670998532375</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.044681454563</v>
+        <v>1780.044681454562</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.404949268117</v>
+        <v>1742.404949268118</v>
       </c>
       <c r="V29" t="n">
         <v>1633.320623933238</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.04773272299</v>
+        <v>1507.047732722991</v>
       </c>
       <c r="X29" t="n">
         <v>1358.667517806743</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.3247418880308</v>
+        <v>225.4960554664709</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3247418880308</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3247418880308</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3247418880308</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3247418880308</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="G30" t="n">
         <v>36.08378119943467</v>
@@ -6543,49 +6543,49 @@
         <v>36.08378119943467</v>
       </c>
       <c r="K30" t="n">
-        <v>53.98678681680337</v>
+        <v>75.01482251945475</v>
       </c>
       <c r="L30" t="n">
-        <v>53.98678681680337</v>
+        <v>193.6489542977307</v>
       </c>
       <c r="M30" t="n">
-        <v>237.1818872090085</v>
+        <v>376.8440546899359</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6455063614409</v>
+        <v>443.645506361431</v>
       </c>
       <c r="O30" t="n">
-        <v>576.77229958353</v>
+        <v>576.7722995835202</v>
       </c>
       <c r="P30" t="n">
-        <v>661.5417860635555</v>
+        <v>661.5417860635456</v>
       </c>
       <c r="Q30" t="n">
-        <v>661.5417860635555</v>
+        <v>661.5417860635456</v>
       </c>
       <c r="R30" t="n">
-        <v>661.5417860635555</v>
+        <v>564.6813007787927</v>
       </c>
       <c r="S30" t="n">
-        <v>468.1293090922691</v>
+        <v>564.6813007787927</v>
       </c>
       <c r="T30" t="n">
-        <v>466.0482761059868</v>
+        <v>562.6002677925103</v>
       </c>
       <c r="U30" t="n">
-        <v>283.8050438632067</v>
+        <v>538.0130256513656</v>
       </c>
       <c r="V30" t="n">
-        <v>255.7619939765595</v>
+        <v>294.9333075549997</v>
       </c>
       <c r="W30" t="n">
-        <v>201.4000929165695</v>
+        <v>240.5714064950097</v>
       </c>
       <c r="X30" t="n">
-        <v>196.9287667429845</v>
+        <v>236.1000803214247</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.3247418880308</v>
+        <v>225.4960554664709</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>36.08378119943467</v>
       </c>
       <c r="C31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="D31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="E31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="F31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="G31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="H31" t="n">
-        <v>82.0486105495273</v>
+        <v>43.07133929914774</v>
       </c>
       <c r="I31" t="n">
-        <v>129.7527024216578</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="J31" t="n">
-        <v>185.2162032251006</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="K31" t="n">
-        <v>185.2162032251006</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="L31" t="n">
-        <v>185.2162032251006</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="M31" t="n">
-        <v>185.2162032251006</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="N31" t="n">
-        <v>185.2162032251006</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="O31" t="n">
-        <v>185.2162032251006</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="P31" t="n">
-        <v>185.2162032251006</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.4495348481057</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="R31" t="n">
-        <v>270.4495348481057</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="S31" t="n">
-        <v>247.7593327225053</v>
+        <v>247.7593327225055</v>
       </c>
       <c r="T31" t="n">
-        <v>236.796127674773</v>
+        <v>236.7961276747731</v>
       </c>
       <c r="U31" t="n">
-        <v>160.2607957304552</v>
+        <v>160.2607957304553</v>
       </c>
       <c r="V31" t="n">
         <v>127.7126001174972</v>
       </c>
       <c r="W31" t="n">
-        <v>49.50612985313973</v>
+        <v>49.50612985313978</v>
       </c>
       <c r="X31" t="n">
-        <v>40.38173199392654</v>
+        <v>40.38173199392656</v>
       </c>
       <c r="Y31" t="n">
         <v>36.08378119943467</v>
@@ -6677,13 +6677,13 @@
         <v>1024.727917058218</v>
       </c>
       <c r="C32" t="n">
-        <v>886.0216586202814</v>
+        <v>886.0216586202813</v>
       </c>
       <c r="D32" t="n">
-        <v>759.8743271913868</v>
+        <v>759.8743271913866</v>
       </c>
       <c r="E32" t="n">
-        <v>599.6797710964224</v>
+        <v>599.6797710964222</v>
       </c>
       <c r="F32" t="n">
         <v>407.4444699727939</v>
@@ -6692,22 +6692,22 @@
         <v>199.4237046400449</v>
       </c>
       <c r="H32" t="n">
-        <v>64.05074496193053</v>
+        <v>64.05074496193059</v>
       </c>
       <c r="I32" t="n">
         <v>36.08378119943467</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7780553930116</v>
+        <v>171.7780553930115</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3003342987345</v>
+        <v>377.3003342987344</v>
       </c>
       <c r="L32" t="n">
-        <v>636.5461568246883</v>
+        <v>636.5461568246881</v>
       </c>
       <c r="M32" t="n">
-        <v>930.1322249480672</v>
+        <v>930.132224948067</v>
       </c>
       <c r="N32" t="n">
         <v>1218.216110876225</v>
@@ -6740,7 +6740,7 @@
         <v>1507.047732722991</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.667517806744</v>
+        <v>1358.667517806743</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.557148220048</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.08378119943467</v>
+        <v>294.5621086434493</v>
       </c>
       <c r="C33" t="n">
-        <v>36.08378119943467</v>
+        <v>294.5621086434493</v>
       </c>
       <c r="D33" t="n">
-        <v>36.08378119943467</v>
+        <v>294.5621086434493</v>
       </c>
       <c r="E33" t="n">
-        <v>36.08378119943467</v>
+        <v>294.5621086434493</v>
       </c>
       <c r="F33" t="n">
-        <v>36.08378119943467</v>
+        <v>294.5621086434493</v>
       </c>
       <c r="G33" t="n">
-        <v>36.08378119943467</v>
+        <v>144.3211479548531</v>
       </c>
       <c r="H33" t="n">
-        <v>36.08378119943467</v>
+        <v>144.3211479548531</v>
       </c>
       <c r="I33" t="n">
         <v>36.08378119943467</v>
@@ -6780,49 +6780,49 @@
         <v>36.08378119943467</v>
       </c>
       <c r="K33" t="n">
-        <v>75.01482251945473</v>
+        <v>75.01482251945475</v>
       </c>
       <c r="L33" t="n">
         <v>193.6489542977307</v>
       </c>
       <c r="M33" t="n">
-        <v>237.1818872090074</v>
+        <v>376.8440546899359</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6455063614397</v>
+        <v>583.3076738423682</v>
       </c>
       <c r="O33" t="n">
-        <v>576.7722995835288</v>
+        <v>583.3076738423682</v>
       </c>
       <c r="P33" t="n">
-        <v>661.5417860635544</v>
+        <v>661.5417860635432</v>
       </c>
       <c r="Q33" t="n">
-        <v>655.3834571965457</v>
+        <v>661.5417860635432</v>
       </c>
       <c r="R33" t="n">
-        <v>655.3834571965457</v>
+        <v>661.5417860635432</v>
       </c>
       <c r="S33" t="n">
-        <v>655.3834571965457</v>
+        <v>661.5417860635432</v>
       </c>
       <c r="T33" t="n">
-        <v>653.3024242102634</v>
+        <v>659.4607530772608</v>
       </c>
       <c r="U33" t="n">
-        <v>527.1366043112643</v>
+        <v>634.8735109361162</v>
       </c>
       <c r="V33" t="n">
-        <v>499.093554424617</v>
+        <v>606.8304610494689</v>
       </c>
       <c r="W33" t="n">
-        <v>229.6949851549084</v>
+        <v>552.4685599894789</v>
       </c>
       <c r="X33" t="n">
-        <v>225.2236589813234</v>
+        <v>547.9972338158939</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.6196341263698</v>
+        <v>322.3565407512215</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.08378119943467</v>
       </c>
       <c r="C34" t="n">
-        <v>82.04861054952733</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="D34" t="n">
-        <v>149.075225313669</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="E34" t="n">
-        <v>149.075225313669</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="F34" t="n">
-        <v>149.075225313669</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="G34" t="n">
-        <v>149.075225313669</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="H34" t="n">
-        <v>149.075225313669</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="I34" t="n">
-        <v>196.7793171857996</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="J34" t="n">
-        <v>196.7793171857996</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="K34" t="n">
-        <v>196.7793171857996</v>
+        <v>36.08378119943467</v>
       </c>
       <c r="L34" t="n">
-        <v>270.4495348481055</v>
+        <v>215.7578848762624</v>
       </c>
       <c r="M34" t="n">
-        <v>270.4495348481055</v>
+        <v>215.7578848762624</v>
       </c>
       <c r="N34" t="n">
-        <v>270.4495348481055</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="O34" t="n">
-        <v>270.4495348481055</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="P34" t="n">
-        <v>270.4495348481055</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.4495348481055</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="R34" t="n">
-        <v>270.4495348481055</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="S34" t="n">
-        <v>247.7593327225052</v>
+        <v>247.7593327225055</v>
       </c>
       <c r="T34" t="n">
-        <v>236.7961276747728</v>
+        <v>236.7961276747731</v>
       </c>
       <c r="U34" t="n">
-        <v>160.2607957304551</v>
+        <v>160.2607957304553</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7126001174971</v>
+        <v>127.7126001174972</v>
       </c>
       <c r="W34" t="n">
-        <v>49.50612985313967</v>
+        <v>49.50612985313978</v>
       </c>
       <c r="X34" t="n">
-        <v>40.38173199392651</v>
+        <v>40.38173199392656</v>
       </c>
       <c r="Y34" t="n">
         <v>36.08378119943467</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>868.4873754666721</v>
+        <v>868.4873754666718</v>
       </c>
       <c r="C35" t="n">
-        <v>751.2183141058943</v>
+        <v>751.218314105894</v>
       </c>
       <c r="D35" t="n">
-        <v>646.5081797541585</v>
+        <v>646.5081797541584</v>
       </c>
       <c r="E35" t="n">
-        <v>507.7508207363531</v>
+        <v>507.750820736353</v>
       </c>
       <c r="F35" t="n">
-        <v>336.9527166898839</v>
+        <v>336.9527166898837</v>
       </c>
       <c r="G35" t="n">
         <v>150.3691484342938</v>
@@ -6935,31 +6935,31 @@
         <v>29.90361914800124</v>
       </c>
       <c r="J35" t="n">
-        <v>186.6084901969016</v>
+        <v>186.6084901969017</v>
       </c>
       <c r="K35" t="n">
-        <v>186.6084901969016</v>
+        <v>413.1413659579481</v>
       </c>
       <c r="L35" t="n">
-        <v>466.8649095781789</v>
+        <v>693.3977853392253</v>
       </c>
       <c r="M35" t="n">
-        <v>775.8022162427662</v>
+        <v>1007.994450317928</v>
       </c>
       <c r="N35" t="n">
-        <v>1084.896699026247</v>
+        <v>1085.320897733739</v>
       </c>
       <c r="O35" t="n">
-        <v>1121.004511853304</v>
+        <v>1353.196745928466</v>
       </c>
       <c r="P35" t="n">
-        <v>1339.442157469687</v>
+        <v>1353.196745928466</v>
       </c>
       <c r="Q35" t="n">
-        <v>1483.605113912703</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="R35" t="n">
-        <v>1483.605113912703</v>
+        <v>1476.823669074094</v>
       </c>
       <c r="S35" t="n">
         <v>1483.605113912703</v>
@@ -6971,13 +6971,13 @@
         <v>1478.978422290777</v>
       </c>
       <c r="V35" t="n">
-        <v>1391.331294033057</v>
+        <v>1391.331294033056</v>
       </c>
       <c r="W35" t="n">
-        <v>1286.495599899968</v>
+        <v>1286.495599899967</v>
       </c>
       <c r="X35" t="n">
-        <v>1159.55258206088</v>
+        <v>1159.552582060879</v>
       </c>
       <c r="Y35" t="n">
         <v>1009.879409551343</v>
@@ -7002,52 +7002,52 @@
         <v>29.90361914800124</v>
       </c>
       <c r="F36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="G36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="H36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="I36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="J36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="K36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="L36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="M36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="N36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="O36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="P36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="R36" t="n">
-        <v>29.90361914800124</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="S36" t="n">
-        <v>72.10808583611218</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="T36" t="n">
-        <v>72.58422100430612</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="U36" t="n">
-        <v>69.43417594032051</v>
+        <v>69.43417594032053</v>
       </c>
       <c r="V36" t="n">
         <v>62.82832313083227</v>
@@ -7072,46 +7072,46 @@
         <v>29.90361914800124</v>
       </c>
       <c r="C37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="F37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="G37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="H37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="I37" t="n">
-        <v>48.17761151634292</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J37" t="n">
-        <v>48.17761151634292</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="K37" t="n">
-        <v>48.17761151634292</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="L37" t="n">
-        <v>48.17761151634292</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="M37" t="n">
-        <v>48.17761151634292</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="N37" t="n">
-        <v>154.1350307865989</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="O37" t="n">
-        <v>154.1350307865989</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="P37" t="n">
-        <v>154.1350307865989</v>
+        <v>121.4113332397375</v>
       </c>
       <c r="Q37" t="n">
         <v>154.1350307865989</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>868.4873754666726</v>
+        <v>868.4873754666722</v>
       </c>
       <c r="C38" t="n">
-        <v>751.2183141058948</v>
+        <v>751.2183141058947</v>
       </c>
       <c r="D38" t="n">
-        <v>646.5081797541591</v>
+        <v>646.5081797541588</v>
       </c>
       <c r="E38" t="n">
-        <v>507.7508207363537</v>
+        <v>507.7508207363533</v>
       </c>
       <c r="F38" t="n">
-        <v>336.9527166898844</v>
+        <v>336.9527166898839</v>
       </c>
       <c r="G38" t="n">
         <v>150.3691484342939</v>
       </c>
       <c r="H38" t="n">
-        <v>36.43338583333816</v>
+        <v>36.43338583333815</v>
       </c>
       <c r="I38" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J38" t="n">
         <v>186.6084901969017</v>
@@ -7178,25 +7178,25 @@
         <v>413.1413659579481</v>
       </c>
       <c r="L38" t="n">
-        <v>679.6431968804479</v>
+        <v>461.6297499715565</v>
       </c>
       <c r="M38" t="n">
-        <v>994.2398618591503</v>
+        <v>776.2264149502589</v>
       </c>
       <c r="N38" t="n">
-        <v>1303.334344642631</v>
+        <v>1085.320897733739</v>
       </c>
       <c r="O38" t="n">
-        <v>1339.442157469688</v>
+        <v>1282.504352858749</v>
       </c>
       <c r="P38" t="n">
-        <v>1339.442157469688</v>
+        <v>1294.501691208963</v>
       </c>
       <c r="Q38" t="n">
-        <v>1483.605113912703</v>
+        <v>1438.664647651978</v>
       </c>
       <c r="R38" t="n">
-        <v>1483.605113912703</v>
+        <v>1476.823669074095</v>
       </c>
       <c r="S38" t="n">
         <v>1483.605113912703</v>
@@ -7205,7 +7205,7 @@
         <v>1495.180957400063</v>
       </c>
       <c r="U38" t="n">
-        <v>1478.978422290778</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V38" t="n">
         <v>1391.331294033057</v>
@@ -7217,7 +7217,7 @@
         <v>1159.55258206088</v>
       </c>
       <c r="Y38" t="n">
-        <v>1009.879409551344</v>
+        <v>1009.879409551343</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F39" t="n">
-        <v>72.58422100430614</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G39" t="n">
-        <v>72.58422100430614</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H39" t="n">
-        <v>72.58422100430614</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I39" t="n">
-        <v>72.58422100430614</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J39" t="n">
-        <v>72.58422100430614</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K39" t="n">
-        <v>72.58422100430614</v>
+        <v>68.83466046802133</v>
       </c>
       <c r="L39" t="n">
-        <v>72.58422100430614</v>
+        <v>68.83466046802133</v>
       </c>
       <c r="M39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="N39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="O39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="P39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="R39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="S39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="T39" t="n">
-        <v>72.58422100430614</v>
+        <v>72.58422100430613</v>
       </c>
       <c r="U39" t="n">
-        <v>69.43417594032054</v>
+        <v>69.43417594032053</v>
       </c>
       <c r="V39" t="n">
-        <v>62.82832313083229</v>
+        <v>62.82832313083228</v>
       </c>
       <c r="W39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K40" t="n">
-        <v>127.4174352382677</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="L40" t="n">
-        <v>127.4174352382677</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="M40" t="n">
-        <v>127.4174352382677</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4174352382677</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="O40" t="n">
-        <v>127.4174352382677</v>
+        <v>154.1350307865989</v>
       </c>
       <c r="P40" t="n">
-        <v>127.4174352382677</v>
+        <v>154.1350307865989</v>
       </c>
       <c r="Q40" t="n">
         <v>154.1350307865989</v>
@@ -7369,13 +7369,13 @@
         <v>86.67289233519969</v>
       </c>
       <c r="W40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>868.4873754666726</v>
       </c>
       <c r="C41" t="n">
-        <v>751.2183141058945</v>
+        <v>751.2183141058948</v>
       </c>
       <c r="D41" t="n">
-        <v>646.5081797541586</v>
+        <v>646.5081797541591</v>
       </c>
       <c r="E41" t="n">
-        <v>507.7508207363532</v>
+        <v>507.7508207363538</v>
       </c>
       <c r="F41" t="n">
-        <v>336.9527166898839</v>
+        <v>336.9527166898845</v>
       </c>
       <c r="G41" t="n">
-        <v>150.3691484342938</v>
+        <v>150.3691484342945</v>
       </c>
       <c r="H41" t="n">
-        <v>36.43338583333819</v>
+        <v>36.43338583333812</v>
       </c>
       <c r="I41" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J41" t="n">
         <v>186.6084901969017</v>
       </c>
       <c r="K41" t="n">
-        <v>413.141365957948</v>
+        <v>413.1413659579481</v>
       </c>
       <c r="L41" t="n">
-        <v>693.3977853392253</v>
+        <v>461.6297499715565</v>
       </c>
       <c r="M41" t="n">
-        <v>1007.994450317928</v>
+        <v>776.2264149502589</v>
       </c>
       <c r="N41" t="n">
         <v>1085.320897733739</v>
       </c>
       <c r="O41" t="n">
-        <v>1258.386023457712</v>
+        <v>1121.428710560797</v>
       </c>
       <c r="P41" t="n">
-        <v>1476.823669074095</v>
+        <v>1339.86635617718</v>
       </c>
       <c r="Q41" t="n">
         <v>1476.823669074095</v>
@@ -7442,7 +7442,7 @@
         <v>1495.180957400063</v>
       </c>
       <c r="U41" t="n">
-        <v>1478.978422290778</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V41" t="n">
         <v>1391.331294033057</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="L42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="M42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="N42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="O42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="P42" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="R42" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="S42" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="T42" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="U42" t="n">
-        <v>69.4341759403206</v>
+        <v>69.43417594032047</v>
       </c>
       <c r="V42" t="n">
-        <v>62.82832313083232</v>
+        <v>62.82832313083225</v>
       </c>
       <c r="W42" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.53186922059412</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="L43" t="n">
-        <v>126.3575491472145</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="M43" t="n">
-        <v>126.3575491472145</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="N43" t="n">
-        <v>154.135030786599</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="O43" t="n">
-        <v>154.135030786599</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="P43" t="n">
-        <v>154.135030786599</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Q43" t="n">
-        <v>154.135030786599</v>
+        <v>136.14754762633</v>
       </c>
       <c r="R43" t="n">
-        <v>154.135030786599</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8820257381576</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8820257381576</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="U43" t="n">
-        <v>97.78389087099876</v>
+        <v>97.78389087099865</v>
       </c>
       <c r="V43" t="n">
-        <v>86.67289233519972</v>
+        <v>86.67289233519966</v>
       </c>
       <c r="W43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>868.4873754666728</v>
+        <v>868.4873754666719</v>
       </c>
       <c r="C44" t="n">
-        <v>751.2183141058952</v>
+        <v>751.2183141058941</v>
       </c>
       <c r="D44" t="n">
-        <v>646.5081797541591</v>
+        <v>646.5081797541584</v>
       </c>
       <c r="E44" t="n">
-        <v>507.7508207363536</v>
+        <v>507.7508207363531</v>
       </c>
       <c r="F44" t="n">
-        <v>336.9527166898843</v>
+        <v>336.9527166898838</v>
       </c>
       <c r="G44" t="n">
-        <v>150.3691484342939</v>
+        <v>150.3691484342938</v>
       </c>
       <c r="H44" t="n">
-        <v>36.43338583333819</v>
+        <v>36.43338583333812</v>
       </c>
       <c r="I44" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J44" t="n">
         <v>186.6084901969017</v>
       </c>
       <c r="K44" t="n">
-        <v>413.141365957948</v>
+        <v>186.6084901969017</v>
       </c>
       <c r="L44" t="n">
-        <v>693.3977853392253</v>
+        <v>466.864909578179</v>
       </c>
       <c r="M44" t="n">
-        <v>1007.994450317928</v>
+        <v>781.4615745568814</v>
       </c>
       <c r="N44" t="n">
-        <v>1317.088933101408</v>
+        <v>858.7880219726933</v>
       </c>
       <c r="O44" t="n">
-        <v>1353.196745928466</v>
+        <v>1114.223067014696</v>
       </c>
       <c r="P44" t="n">
-        <v>1353.196745928466</v>
+        <v>1332.66071263108</v>
       </c>
       <c r="Q44" t="n">
-        <v>1444.066227650025</v>
+        <v>1476.823669074095</v>
       </c>
       <c r="R44" t="n">
-        <v>1483.605113912703</v>
+        <v>1476.823669074095</v>
       </c>
       <c r="S44" t="n">
         <v>1483.605113912703</v>
@@ -7679,13 +7679,13 @@
         <v>1495.180957400063</v>
       </c>
       <c r="U44" t="n">
-        <v>1478.978422290778</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V44" t="n">
         <v>1391.331294033057</v>
       </c>
       <c r="W44" t="n">
-        <v>1286.495599899969</v>
+        <v>1286.495599899968</v>
       </c>
       <c r="X44" t="n">
         <v>1159.55258206088</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="L45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="M45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="N45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="O45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="P45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.58422100430623</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="R45" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="S45" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="T45" t="n">
-        <v>72.58422100430623</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="U45" t="n">
-        <v>69.4341759403206</v>
+        <v>69.43417594032047</v>
       </c>
       <c r="V45" t="n">
-        <v>62.82832313083232</v>
+        <v>62.82832313083225</v>
       </c>
       <c r="W45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="C46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="D46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="E46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="F46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="G46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="H46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="I46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="J46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="K46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="L46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="M46" t="n">
-        <v>37.459422636062</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="N46" t="n">
-        <v>37.459422636062</v>
+        <v>89.80991696676517</v>
       </c>
       <c r="O46" t="n">
-        <v>154.135030786599</v>
+        <v>89.80991696676517</v>
       </c>
       <c r="P46" t="n">
-        <v>154.135030786599</v>
+        <v>89.80991696676517</v>
       </c>
       <c r="Q46" t="n">
-        <v>154.135030786599</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="R46" t="n">
-        <v>154.135030786599</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8820257381576</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="T46" t="n">
-        <v>152.8820257381576</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="U46" t="n">
-        <v>97.78389087099876</v>
+        <v>97.78389087099865</v>
       </c>
       <c r="V46" t="n">
-        <v>86.67289233519972</v>
+        <v>86.67289233519966</v>
       </c>
       <c r="W46" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="X46" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.90361914800126</v>
+        <v>29.90361914800125</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.08294808816298</v>
+        <v>56.08294808816297</v>
       </c>
       <c r="K11" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>221.6663013583803</v>
+        <v>196.2549887111534</v>
       </c>
       <c r="M11" t="n">
-        <v>284.8715129108859</v>
+        <v>284.8715129108858</v>
       </c>
       <c r="N11" t="n">
-        <v>177.4501513166402</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.720916963085372</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>55.89144593247011</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>30.19003547347652</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>198.003300229098</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7.367877870484623</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.82122754662569</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>16.48911591364359</v>
       </c>
       <c r="K14" t="n">
-        <v>84.64227105596083</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>221.6663013583803</v>
+        <v>92.35326471527341</v>
       </c>
       <c r="M14" t="n">
-        <v>38.71261845034185</v>
+        <v>284.8715129108859</v>
       </c>
       <c r="N14" t="n">
-        <v>282.5453100196494</v>
+        <v>151.7346978757643</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>92.67756640482759</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>96.7570560162826</v>
       </c>
       <c r="R14" t="n">
-        <v>42.58424007769262</v>
+        <v>30.19003547347646</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>7.367877870484623</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
@@ -9103,7 +9103,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>120.4720874149487</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>289.3734184709324</v>
+        <v>255.1667060484605</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7381301594616</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10191,16 +10191,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>150.1330334804627</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>120.4720874149487</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>169.5409621292316</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10434,16 +10434,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>160.7039848646177</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
-        <v>255.2227828913207</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>199.7624859384263</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10592,7 +10592,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>285.5682461537443</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
         <v>283.4008070189657</v>
@@ -10607,7 +10607,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>2.645971125492352</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>120.4720874149487</v>
       </c>
       <c r="M36" t="n">
-        <v>116.7313253582776</v>
+        <v>13.55546484228189</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>102.0647483196405</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>120.7381301594616</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0382124233817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>175.3520598120807</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10896,19 +10896,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.90716542317826</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M39" t="n">
-        <v>116.7313253582776</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>102.0647483196405</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>120.7381301594616</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
         <v>105.2836065989273</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>42.58424007769262</v>
+        <v>2.645971125492316</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>56.17422905426682</v>
       </c>
       <c r="K42" t="n">
         <v>132.0491894225145</v>
@@ -11148,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>102.0647483196405</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>93.0988711288761</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
         <v>115.6742602693208</v>
@@ -11236,7 +11236,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.74832129968328</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,7 +11373,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>102.0647483196405</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7512745861802</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>120.7381301594616</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11455,25 +11455,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>33.72611133343131</v>
       </c>
       <c r="M46" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>26.1575841076923</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.5221780918086</v>
+        <v>90.27015244889078</v>
       </c>
       <c r="C11" t="n">
-        <v>66.38840945223627</v>
+        <v>143.6404350951541</v>
       </c>
       <c r="D11" t="n">
-        <v>53.95507171328474</v>
+        <v>131.2070973562026</v>
       </c>
       <c r="E11" t="n">
-        <v>164.9138497756115</v>
+        <v>112.7215587379607</v>
       </c>
       <c r="F11" t="n">
         <v>196.6341873539888</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2617969210183</v>
+        <v>135.0097712781005</v>
       </c>
       <c r="H11" t="n">
-        <v>63.0884436800125</v>
+        <v>140.3404693229303</v>
       </c>
       <c r="I11" t="n">
         <v>34.0085333664677</v>
@@ -23309,19 +23309,19 @@
         <v>20.69412006656161</v>
       </c>
       <c r="T11" t="n">
-        <v>15.85129314863118</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>43.5845741061766</v>
       </c>
       <c r="V11" t="n">
-        <v>46.27113713684534</v>
+        <v>114.3147213231273</v>
       </c>
       <c r="W11" t="n">
         <v>131.3314015397422</v>
       </c>
       <c r="X11" t="n">
-        <v>153.2176520086814</v>
+        <v>75.96562636576358</v>
       </c>
       <c r="Y11" t="n">
         <v>175.7205051324252</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.839192223553539</v>
+        <v>4.839192223553532</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>143.6404350951541</v>
       </c>
       <c r="D14" t="n">
-        <v>131.2070973562026</v>
+        <v>131.2070973562025</v>
       </c>
       <c r="E14" t="n">
-        <v>164.9138497756115</v>
+        <v>164.9138497756114</v>
       </c>
       <c r="F14" t="n">
-        <v>196.6341873539888</v>
+        <v>196.6341873539887</v>
       </c>
       <c r="G14" t="n">
         <v>135.0097712781004</v>
       </c>
       <c r="H14" t="n">
-        <v>93.33208703293643</v>
+        <v>140.3404693229303</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.51036239537837</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>15.85129314863118</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>43.58457410617655</v>
       </c>
       <c r="V14" t="n">
-        <v>37.06269568020946</v>
+        <v>37.0626956802094</v>
       </c>
       <c r="W14" t="n">
-        <v>131.3314015397422</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="X14" t="n">
         <v>153.2176520086814</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.7205051324252</v>
+        <v>98.46847948950727</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.839192223553518</v>
+        <v>4.839192223553468</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.493619160392768</v>
+        <v>6.493619160392711</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.678369738358242</v>
+        <v>3.678369738357451</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.678369738358286</v>
+        <v>3.678369738358242</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.678369738358314</v>
+        <v>3.678369738358242</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923680.4849855634</v>
+        <v>923680.4849855633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923680.4849855634</v>
+        <v>923680.4849855632</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1124649.169715163</v>
+        <v>1124649.169715164</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1124649.169715164</v>
+        <v>1124649.169715163</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852872</v>
@@ -26320,13 +26320,13 @@
         <v>551207.4969852873</v>
       </c>
       <c r="E2" t="n">
-        <v>475268.3039795245</v>
+        <v>475268.3039795244</v>
       </c>
       <c r="F2" t="n">
-        <v>475268.3039795245</v>
+        <v>475268.3039795246</v>
       </c>
       <c r="G2" t="n">
-        <v>552141.0941421016</v>
+        <v>552141.0941421017</v>
       </c>
       <c r="H2" t="n">
         <v>552141.0941421017</v>
@@ -26335,25 +26335,25 @@
         <v>552141.0941421016</v>
       </c>
       <c r="J2" t="n">
-        <v>552324.0930365848</v>
+        <v>552324.0930365849</v>
       </c>
       <c r="K2" t="n">
+        <v>552324.0930365847</v>
+      </c>
+      <c r="L2" t="n">
         <v>552324.093036585</v>
       </c>
-      <c r="L2" t="n">
-        <v>552324.0930365849</v>
-      </c>
       <c r="M2" t="n">
-        <v>552324.0930365846</v>
+        <v>552324.093036585</v>
       </c>
       <c r="N2" t="n">
         <v>552324.0930365847</v>
       </c>
       <c r="O2" t="n">
-        <v>552324.0930365851</v>
+        <v>552324.0930365848</v>
       </c>
       <c r="P2" t="n">
-        <v>552324.093036585</v>
+        <v>552324.0930365848</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>271860.213039114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>105065.1212317937</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163045.201594799</v>
+        <v>163045.2015947989</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105065.1212317938</v>
+        <v>105065.1212317937</v>
       </c>
       <c r="M3" t="n">
-        <v>16978.26008510985</v>
+        <v>16978.26008510995</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65243.91999030349</v>
+        <v>65243.91999030347</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>398753.0128571785</v>
       </c>
       <c r="F4" t="n">
-        <v>398753.0128571785</v>
+        <v>398753.0128571786</v>
       </c>
       <c r="G4" t="n">
         <v>468280.5434955973</v>
@@ -26436,16 +26436,16 @@
         <v>468280.5434955973</v>
       </c>
       <c r="I4" t="n">
-        <v>468280.5434955972</v>
+        <v>468280.5434955973</v>
       </c>
       <c r="J4" t="n">
-        <v>471340.3538689114</v>
+        <v>471340.3538689113</v>
       </c>
       <c r="K4" t="n">
-        <v>471340.3538689113</v>
+        <v>471340.3538689112</v>
       </c>
       <c r="L4" t="n">
-        <v>471340.3538689113</v>
+        <v>471340.3538689112</v>
       </c>
       <c r="M4" t="n">
         <v>470415.8059088226</v>
@@ -26485,10 +26485,10 @@
         <v>35370.4288175212</v>
       </c>
       <c r="H5" t="n">
-        <v>35370.42881752118</v>
+        <v>35370.4288175212</v>
       </c>
       <c r="I5" t="n">
-        <v>35370.42881752118</v>
+        <v>35370.4288175212</v>
       </c>
       <c r="J5" t="n">
         <v>47587.70003575935</v>
@@ -26506,10 +26506,10 @@
         <v>44674.95856053884</v>
       </c>
       <c r="O5" t="n">
-        <v>44674.95856053883</v>
+        <v>44674.95856053884</v>
       </c>
       <c r="P5" t="n">
-        <v>44674.95856053883</v>
+        <v>44674.95856053884</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14202.15124840735</v>
+        <v>14197.68486420228</v>
       </c>
       <c r="C6" t="n">
-        <v>14202.15124840735</v>
+        <v>14197.68486420216</v>
       </c>
       <c r="D6" t="n">
-        <v>14202.15124840747</v>
+        <v>14197.68486420228</v>
       </c>
       <c r="E6" t="n">
-        <v>-219674.4511382446</v>
+        <v>-219982.6742944729</v>
       </c>
       <c r="F6" t="n">
-        <v>52185.7619008694</v>
+        <v>51877.53874464116</v>
       </c>
       <c r="G6" t="n">
-        <v>-56574.9994028107</v>
+        <v>-56575.73139838846</v>
       </c>
       <c r="H6" t="n">
-        <v>48490.12182898326</v>
+        <v>48489.38983340526</v>
       </c>
       <c r="I6" t="n">
-        <v>48490.1218289832</v>
+        <v>48489.38983340514</v>
       </c>
       <c r="J6" t="n">
-        <v>-129649.162462885</v>
+        <v>-129649.1624628847</v>
       </c>
       <c r="K6" t="n">
-        <v>33396.03913191434</v>
+        <v>33396.03913191411</v>
       </c>
       <c r="L6" t="n">
-        <v>-71669.08209987955</v>
+        <v>-71669.08209987926</v>
       </c>
       <c r="M6" t="n">
-        <v>20255.0684821133</v>
+        <v>20255.06848211365</v>
       </c>
       <c r="N6" t="n">
         <v>37233.32856722326</v>
       </c>
       <c r="O6" t="n">
-        <v>-28010.59142307973</v>
+        <v>-28010.59142308008</v>
       </c>
       <c r="P6" t="n">
-        <v>37233.32856722362</v>
+        <v>37233.32856722338</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>206.5650622860247</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G2" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="H2" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I2" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
         <v>212.8863015276215</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M2" t="n">
         <v>234.1091266340089</v>
@@ -26722,10 +26722,10 @@
         <v>234.1091266340089</v>
       </c>
       <c r="O2" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="P2" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="3">
@@ -26917,10 +26917,10 @@
         <v>206.5650622860247</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3314015397422</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.55489998787939</v>
+        <v>81.55489998787931</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3314015397422</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="M2" t="n">
-        <v>21.22282510638732</v>
+        <v>21.22282510638743</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.55489998787937</v>
+        <v>81.55489998787934</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>206.5650622860247</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3314015397422</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.55489998787939</v>
+        <v>81.55489998787931</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,28 +28114,28 @@
         <v>206.5650622860247</v>
       </c>
       <c r="K11" t="n">
-        <v>5.288040006689272</v>
+        <v>5.288040006689258</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>102.6633382901447</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>105.0951587030091</v>
+        <v>206.5650622860247</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13.46504015281364</v>
+      </c>
+      <c r="Q11" t="n">
         <v>206.5650622860247</v>
       </c>
-      <c r="P11" t="n">
-        <v>87.59577183036109</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>88.48997871177124</v>
-      </c>
       <c r="R11" t="n">
-        <v>194.1708576818086</v>
+        <v>206.5650622860247</v>
       </c>
       <c r="S11" t="n">
         <v>206.5650622860247</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.5650622860247</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>206.5650622860247</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>176.8451318820763</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>206.5650622860247</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>206.5650622860247</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7385510817101</v>
@@ -28190,22 +28190,22 @@
         <v>113.7164772401473</v>
       </c>
       <c r="J12" t="n">
-        <v>133.6102484037044</v>
+        <v>206.5650622860247</v>
       </c>
       <c r="K12" t="n">
         <v>132.0491894225145</v>
       </c>
       <c r="L12" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>116.7313253582776</v>
       </c>
       <c r="N12" t="n">
-        <v>102.0647483196405</v>
+        <v>115.9580279466904</v>
       </c>
       <c r="O12" t="n">
-        <v>120.7512745861802</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>120.7381301594616</v>
@@ -28217,7 +28217,7 @@
         <v>163.8420014665998</v>
       </c>
       <c r="S12" t="n">
-        <v>206.5650622860247</v>
+        <v>191.4783522015736</v>
       </c>
       <c r="T12" t="n">
         <v>206.5650622860247</v>
@@ -28251,7 +28251,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>180.380556633455</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28269,31 +28269,31 @@
         <v>164.700350141631</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8808078207869</v>
+        <v>141.6770921979116</v>
       </c>
       <c r="K13" t="n">
-        <v>135.6103225024266</v>
+        <v>206.5650622860247</v>
       </c>
       <c r="L13" t="n">
+        <v>31.39730791466419</v>
+      </c>
+      <c r="M13" t="n">
+        <v>163.5593081963459</v>
+      </c>
+      <c r="N13" t="n">
+        <v>204.333456044345</v>
+      </c>
+      <c r="O13" t="n">
+        <v>142.4125610946941</v>
+      </c>
+      <c r="P13" t="n">
         <v>206.5650622860247</v>
-      </c>
-      <c r="M13" t="n">
-        <v>24.42134215107679</v>
-      </c>
-      <c r="N13" t="n">
-        <v>92.99557552913372</v>
-      </c>
-      <c r="O13" t="n">
-        <v>36.76156128960226</v>
-      </c>
-      <c r="P13" t="n">
-        <v>57.86480540207843</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5650622860247</v>
       </c>
       <c r="R13" t="n">
-        <v>206.5650622860247</v>
+        <v>203.2017724423185</v>
       </c>
       <c r="S13" t="n">
         <v>206.5650622860247</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="C14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="D14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="E14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="H14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="I14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="J14" t="n">
-        <v>75.82137809976602</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="K14" t="n">
-        <v>130.6919962968432</v>
+        <v>5.288040006689258</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="M14" t="n">
-        <v>206.5650622860247</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>53.55858650096719</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>206.5650622860247</v>
+        <v>13.46504015281364</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.7420043546891</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1708576818086</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="S14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>197.1589299359309</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="C15" t="n">
-        <v>206.5650622860247</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>206.5650622860247</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28433,13 +28433,13 @@
         <v>132.0491894225145</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>177.5056130359594</v>
       </c>
       <c r="M15" t="n">
-        <v>116.7313253582776</v>
+        <v>193.9833510011954</v>
       </c>
       <c r="N15" t="n">
-        <v>179.3167739625584</v>
+        <v>102.0647483196405</v>
       </c>
       <c r="O15" t="n">
         <v>120.7512745861802</v>
@@ -28457,22 +28457,22 @@
         <v>191.4783522015736</v>
       </c>
       <c r="T15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="16">
@@ -28485,40 +28485,40 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="D16" t="n">
-        <v>206.5650622860247</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>206.5650622860247</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>206.5650622860247</v>
+        <v>168.6956999658778</v>
       </c>
       <c r="H16" t="n">
         <v>165.7792766353332</v>
       </c>
       <c r="I16" t="n">
-        <v>164.700350141631</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="J16" t="n">
         <v>119.8808078207869</v>
       </c>
       <c r="K16" t="n">
-        <v>66.4403619110918</v>
+        <v>143.6923875540097</v>
       </c>
       <c r="L16" t="n">
-        <v>206.5650622860247</v>
+        <v>61.87464648187978</v>
       </c>
       <c r="M16" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N16" t="n">
-        <v>38.55555313175685</v>
+        <v>204.333456044345</v>
       </c>
       <c r="O16" t="n">
         <v>36.76156128960226</v>
@@ -28527,31 +28527,31 @@
         <v>57.86480540207843</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7920271609496</v>
+        <v>169.1342641897326</v>
       </c>
       <c r="R16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="S16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>317.8256212954103</v>
       </c>
       <c r="J17" t="n">
-        <v>185.3959847312698</v>
+        <v>262.6480103741877</v>
       </c>
       <c r="K17" t="n">
-        <v>215.334267352804</v>
+        <v>292.5862929957219</v>
       </c>
       <c r="L17" t="n">
         <v>221.6663013583803</v>
@@ -28606,22 +28606,22 @@
         <v>221.9906030479344</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.3221183023073</v>
+        <v>226.0700926593895</v>
       </c>
       <c r="R17" t="n">
         <v>236.7550977595012</v>
       </c>
       <c r="S17" t="n">
-        <v>284.3732338135189</v>
+        <v>227.2591823525863</v>
       </c>
       <c r="T17" t="n">
         <v>222.4163554346559</v>
       </c>
       <c r="U17" t="n">
-        <v>327.4016620351192</v>
+        <v>324.2803680697488</v>
       </c>
       <c r="V17" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28761,7 +28761,7 @@
         <v>142.4125610946941</v>
       </c>
       <c r="P19" t="n">
-        <v>145.3490584295771</v>
+        <v>145.349058429577</v>
       </c>
       <c r="Q19" t="n">
         <v>169.1342641897326</v>
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="E20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5735956524924</v>
+        <v>314.7043273300399</v>
       </c>
       <c r="J20" t="n">
-        <v>259.5267164088173</v>
+        <v>185.3959847312698</v>
       </c>
       <c r="K20" t="n">
         <v>215.334267352804</v>
@@ -28834,16 +28834,16 @@
         <v>207.619487267968</v>
       </c>
       <c r="N20" t="n">
-        <v>205.2932843767315</v>
+        <v>282.5453100196493</v>
       </c>
       <c r="O20" t="n">
-        <v>287.538004892028</v>
+        <v>210.2859792491101</v>
       </c>
       <c r="P20" t="n">
         <v>221.9906030479344</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.0700926593895</v>
+        <v>303.3221183023073</v>
       </c>
       <c r="R20" t="n">
         <v>236.7550977595012</v>
@@ -28855,19 +28855,19 @@
         <v>299.6683810775737</v>
       </c>
       <c r="U20" t="n">
-        <v>327.4016620351192</v>
+        <v>250.1496363922013</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y20" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="21">
@@ -28998,7 +28998,7 @@
         <v>142.4125610946941</v>
       </c>
       <c r="P22" t="n">
-        <v>145.3490584295771</v>
+        <v>145.349058429577</v>
       </c>
       <c r="Q22" t="n">
         <v>169.1342641897326</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="E23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5735956524924</v>
+        <v>317.8256212954103</v>
       </c>
       <c r="J23" t="n">
         <v>185.3959847312698</v>
@@ -29068,13 +29068,13 @@
         <v>221.6663013583803</v>
       </c>
       <c r="M23" t="n">
-        <v>264.7335387289006</v>
+        <v>207.619487267968</v>
       </c>
       <c r="N23" t="n">
         <v>205.2932843767315</v>
       </c>
       <c r="O23" t="n">
-        <v>287.538004892028</v>
+        <v>210.2859792491101</v>
       </c>
       <c r="P23" t="n">
         <v>221.9906030479344</v>
@@ -29086,7 +29086,7 @@
         <v>236.7550977595012</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2591823525863</v>
+        <v>301.3899140301338</v>
       </c>
       <c r="T23" t="n">
         <v>299.6683810775737</v>
@@ -29095,16 +29095,16 @@
         <v>327.4016620351192</v>
       </c>
       <c r="V23" t="n">
-        <v>337.8964638257668</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y23" t="n">
-        <v>337.8964638257668</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="24">
@@ -29235,7 +29235,7 @@
         <v>142.4125610946941</v>
       </c>
       <c r="P25" t="n">
-        <v>145.3490584295771</v>
+        <v>145.349058429577</v>
       </c>
       <c r="Q25" t="n">
         <v>169.1342641897326</v>
@@ -29317,10 +29317,10 @@
         <v>212.8863015276215</v>
       </c>
       <c r="Q26" t="n">
+        <v>212.8863015276218</v>
+      </c>
+      <c r="R26" t="n">
         <v>212.8863015276215</v>
-      </c>
-      <c r="R26" t="n">
-        <v>212.8863015276218</v>
       </c>
       <c r="S26" t="n">
         <v>212.8863015276215</v>
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7385510817101</v>
@@ -29375,7 +29375,7 @@
         <v>107.1549930878643</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.096745578338602</v>
+        <v>6.096745578338595</v>
       </c>
       <c r="R27" t="n">
         <v>134.3439594288639</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4783522015736</v>
+        <v>79.89589208509041</v>
       </c>
       <c r="T27" t="n">
         <v>212.8863015276215</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8863015276215</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>212.8863015276215</v>
       </c>
       <c r="W27" t="n">
-        <v>86.4889797433469</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="X27" t="n">
         <v>212.8863015276215</v>
@@ -29439,10 +29439,10 @@
         <v>212.8863015276215</v>
       </c>
       <c r="E28" t="n">
-        <v>212.8863015276215</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>140.967351667771</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6956999658778</v>
@@ -29460,13 +29460,13 @@
         <v>66.4403619110918</v>
       </c>
       <c r="L28" t="n">
-        <v>31.3973079146642</v>
+        <v>200.4267411313603</v>
       </c>
       <c r="M28" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N28" t="n">
-        <v>15.74354988621588</v>
+        <v>15.74354988621587</v>
       </c>
       <c r="O28" t="n">
         <v>36.76156128960226</v>
@@ -29475,10 +29475,10 @@
         <v>57.86480540207843</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8863015276215</v>
+        <v>126.7920271609496</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8863015276215</v>
+        <v>203.2017724423185</v>
       </c>
       <c r="S28" t="n">
         <v>212.8863015276215</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276219</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7385510817101</v>
       </c>
       <c r="H30" t="n">
         <v>125.6770615541839</v>
@@ -29612,7 +29612,7 @@
         <v>107.1549930878643</v>
       </c>
       <c r="J30" t="n">
-        <v>51.90325750311951</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.096745578338602</v>
+        <v>6.096745578338595</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3439594288639</v>
+        <v>38.45207899695841</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4783522015736</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U30" t="n">
-        <v>56.80687132700236</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8863015276215</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>212.8863015276215</v>
+        <v>173.515320466632</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29688,22 +29688,22 @@
         <v>165.7792766353332</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="J31" t="n">
-        <v>175.9045460060826</v>
+        <v>119.8808078207869</v>
       </c>
       <c r="K31" t="n">
         <v>66.4403619110918</v>
       </c>
       <c r="L31" t="n">
-        <v>31.3973079146642</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M31" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N31" t="n">
-        <v>15.74354988621588</v>
+        <v>15.74354988621587</v>
       </c>
       <c r="O31" t="n">
         <v>36.76156128960226</v>
@@ -29712,31 +29712,31 @@
         <v>57.86480540207843</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8863015276215</v>
+        <v>126.7920271609496</v>
       </c>
       <c r="R31" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8863015276217</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>149.2340066109712</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29840,16 +29840,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7385510817101</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.6770615541839</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1549930878643</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.90325750311951</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.096745578338595</v>
       </c>
       <c r="R33" t="n">
         <v>134.3439594288639</v>
@@ -29879,22 +29879,22 @@
         <v>191.4783522015736</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U33" t="n">
-        <v>112.3235095473454</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8863015276215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.8863015276215</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8863015276215</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29925,7 +29925,7 @@
         <v>165.7792766353332</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8863015276215</v>
+        <v>164.700350141631</v>
       </c>
       <c r="J34" t="n">
         <v>119.8808078207869</v>
@@ -29934,13 +29934,13 @@
         <v>66.4403619110918</v>
       </c>
       <c r="L34" t="n">
-        <v>105.8116691897207</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M34" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N34" t="n">
-        <v>15.74354988621588</v>
+        <v>70.98764076686597</v>
       </c>
       <c r="O34" t="n">
         <v>36.76156128960226</v>
@@ -29955,25 +29955,25 @@
         <v>203.2017724423185</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>234.1091266340089</v>
       </c>
       <c r="K35" t="n">
-        <v>5.288040006689272</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="L35" t="n">
         <v>234.1091266340089</v>
@@ -30019,22 +30019,22 @@
         <v>234.1091266340089</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>234.1091266340089</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>234.1091266340089</v>
+        <v>13.46504015281364</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.1091266340089</v>
+        <v>173.4273897046506</v>
       </c>
       <c r="R35" t="n">
         <v>234.1091266340089</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2591823525863</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T35" t="n">
         <v>234.1091266340089</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>201.9351581667009</v>
       </c>
       <c r="G36" t="n">
         <v>148.7385510817101</v>
@@ -30086,7 +30086,7 @@
         <v>107.1549930878643</v>
       </c>
       <c r="J36" t="n">
-        <v>133.6102484037044</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K36" t="n">
         <v>132.0491894225145</v>
@@ -30095,28 +30095,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>103.1758605159957</v>
       </c>
       <c r="N36" t="n">
-        <v>102.0647483196405</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>120.7512745861802</v>
       </c>
       <c r="P36" t="n">
-        <v>120.7381301594616</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.18861560778713</v>
+        <v>142.2268280311688</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3439594288639</v>
+        <v>163.8420014665998</v>
       </c>
       <c r="S36" t="n">
-        <v>234.1091266340089</v>
+        <v>191.4783522015736</v>
       </c>
       <c r="T36" t="n">
-        <v>215.4274687983783</v>
+        <v>214.946524184041</v>
       </c>
       <c r="U36" t="n">
         <v>234.1091266340089</v>
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>184.9157591218124</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30165,28 +30165,28 @@
         <v>164.700350141631</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8808078207869</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="K37" t="n">
         <v>66.4403619110918</v>
       </c>
       <c r="L37" t="n">
-        <v>136.6809145135915</v>
+        <v>31.39730791466419</v>
       </c>
       <c r="M37" t="n">
-        <v>24.42134215107679</v>
+        <v>140.0956024203976</v>
       </c>
       <c r="N37" t="n">
-        <v>234.1091266340089</v>
+        <v>127.0814304014271</v>
       </c>
       <c r="O37" t="n">
-        <v>36.76156128960226</v>
+        <v>142.4125610946941</v>
       </c>
       <c r="P37" t="n">
-        <v>57.86480540207843</v>
+        <v>145.349058429577</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7920271609496</v>
+        <v>202.1885041360572</v>
       </c>
       <c r="R37" t="n">
         <v>203.2017724423185</v>
@@ -30250,7 +30250,7 @@
         <v>234.1091266340089</v>
       </c>
       <c r="L38" t="n">
-        <v>220.2156029382741</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>234.1091266340089</v>
@@ -30259,19 +30259,19 @@
         <v>234.1091266340089</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="P38" t="n">
-        <v>13.46504015281366</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Q38" t="n">
         <v>234.1091266340089</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1708576818086</v>
+        <v>232.7153237647547</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2591823525863</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T38" t="n">
         <v>234.1091266340089</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>201.9351581667009</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7385510817101</v>
@@ -30320,19 +30320,19 @@
         <v>125.6770615541839</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1549930878643</v>
+        <v>113.7164772401473</v>
       </c>
       <c r="J39" t="n">
-        <v>72.70308298052618</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K39" t="n">
-        <v>132.0491894225145</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>120.5187602434137</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -30341,13 +30341,13 @@
         <v>120.7512745861802</v>
       </c>
       <c r="P39" t="n">
-        <v>120.7381301594616</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.096745578338602</v>
+        <v>6.096745578338595</v>
       </c>
       <c r="R39" t="n">
-        <v>163.8420014665998</v>
+        <v>134.3439594288639</v>
       </c>
       <c r="S39" t="n">
         <v>191.4783522015736</v>
@@ -30405,25 +30405,25 @@
         <v>119.8808078207869</v>
       </c>
       <c r="K40" t="n">
-        <v>234.1091266340089</v>
+        <v>66.4403619110918</v>
       </c>
       <c r="L40" t="n">
-        <v>31.3973079146642</v>
+        <v>31.39730791466419</v>
       </c>
       <c r="M40" t="n">
         <v>140.0956024203976</v>
       </c>
       <c r="N40" t="n">
-        <v>127.0814304014271</v>
+        <v>15.74354988621587</v>
       </c>
       <c r="O40" t="n">
-        <v>142.4125610946941</v>
+        <v>162.2478356720241</v>
       </c>
       <c r="P40" t="n">
         <v>57.86480540207843</v>
       </c>
       <c r="Q40" t="n">
-        <v>196.1217344405722</v>
+        <v>126.7920271609496</v>
       </c>
       <c r="R40" t="n">
         <v>203.2017724423185</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="C41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="E41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="F41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="G41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="H41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="I41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="K41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="L41" t="n">
-        <v>234.1091266340088</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="O41" t="n">
-        <v>138.3407200978939</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.48997871177124</v>
+        <v>226.830698809665</v>
       </c>
       <c r="R41" t="n">
-        <v>194.1708576818086</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="S41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="U41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="42">
@@ -30557,10 +30557,10 @@
         <v>125.6770615541839</v>
       </c>
       <c r="I42" t="n">
-        <v>140.0319840923817</v>
+        <v>113.7164772401473</v>
       </c>
       <c r="J42" t="n">
-        <v>133.6102484037044</v>
+        <v>77.4360193494376</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30572,19 +30572,19 @@
         <v>116.7313253582776</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>102.0647483196405</v>
       </c>
       <c r="O42" t="n">
-        <v>27.65240345730413</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>120.7381301594616</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.2268280311688</v>
+        <v>185.3385470779413</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3439594288639</v>
+        <v>163.8420014665998</v>
       </c>
       <c r="S42" t="n">
         <v>191.4783522015736</v>
@@ -30593,16 +30593,16 @@
         <v>214.946524184041</v>
       </c>
       <c r="U42" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V42" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W42" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X42" t="n">
-        <v>234.1091266340088</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,16 +30642,16 @@
         <v>119.8808078207869</v>
       </c>
       <c r="K43" t="n">
-        <v>135.6103225024266</v>
+        <v>66.4403619110918</v>
       </c>
       <c r="L43" t="n">
-        <v>234.1091266340088</v>
+        <v>31.39730791466419</v>
       </c>
       <c r="M43" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N43" t="n">
-        <v>155.1394926634317</v>
+        <v>127.0814304014271</v>
       </c>
       <c r="O43" t="n">
         <v>36.76156128960226</v>
@@ -30660,25 +30660,25 @@
         <v>57.86480540207843</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.1342641897326</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2017724423185</v>
+        <v>221.3709473516809</v>
       </c>
       <c r="S43" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T43" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U43" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V43" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W43" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="C44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="E44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="F44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="G44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="H44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="I44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="K44" t="n">
-        <v>234.1091266340088</v>
+        <v>5.288040006689258</v>
       </c>
       <c r="L44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="M44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N44" t="n">
-        <v>234.1091266340088</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>221.5426588029754</v>
       </c>
       <c r="P44" t="n">
-        <v>13.46504015281366</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="R44" t="n">
-        <v>234.1091266340088</v>
+        <v>194.1708576818086</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2591823525863</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="U44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>201.9351581667011</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7385510817101</v>
@@ -30797,7 +30797,7 @@
         <v>107.1549930878643</v>
       </c>
       <c r="J45" t="n">
-        <v>133.6102484037044</v>
+        <v>51.9032575031195</v>
       </c>
       <c r="K45" t="n">
         <v>132.0491894225145</v>
@@ -30809,19 +30809,19 @@
         <v>116.7313253582776</v>
       </c>
       <c r="N45" t="n">
-        <v>102.0647483196405</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.7381301594616</v>
       </c>
       <c r="Q45" t="n">
         <v>142.2268280311688</v>
       </c>
       <c r="R45" t="n">
-        <v>163.8420014665998</v>
+        <v>206.9537205133723</v>
       </c>
       <c r="S45" t="n">
         <v>191.4783522015736</v>
@@ -30830,13 +30830,13 @@
         <v>214.946524184041</v>
       </c>
       <c r="U45" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V45" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W45" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.249045400383</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30879,43 +30879,43 @@
         <v>141.6770921979116</v>
       </c>
       <c r="K46" t="n">
-        <v>135.6103225024266</v>
+        <v>66.4403619110918</v>
       </c>
       <c r="L46" t="n">
-        <v>31.3973079146642</v>
+        <v>102.9548031801602</v>
       </c>
       <c r="M46" t="n">
-        <v>24.42134215107679</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N46" t="n">
-        <v>15.74354988621588</v>
+        <v>187.5928423395725</v>
       </c>
       <c r="O46" t="n">
-        <v>234.1091266340088</v>
+        <v>36.76156128960226</v>
       </c>
       <c r="P46" t="n">
         <v>57.86480540207843</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7920271609496</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="R46" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S46" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T46" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U46" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V46" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W46" t="n">
-        <v>234.1091266340088</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H11" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I11" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J11" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K11" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L11" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M11" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N11" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O11" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P11" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R11" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S11" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T11" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H12" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I12" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J12" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K12" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L12" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M12" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N12" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O12" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P12" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q12" t="n">
         <v>28.55093635377746</v>
@@ -31865,10 +31865,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S12" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U12" t="n">
         <v>0.01471495482774402</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H13" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I13" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J13" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K13" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L13" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M13" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N13" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O13" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P13" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q13" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R13" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S13" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U13" t="n">
         <v>0.01022809974912044</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H14" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I14" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J14" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K14" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L14" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M14" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N14" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O14" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P14" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R14" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S14" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T14" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H15" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I15" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J15" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K15" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L15" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M15" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N15" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O15" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P15" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q15" t="n">
         <v>28.55093635377746</v>
@@ -32102,10 +32102,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S15" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U15" t="n">
         <v>0.01471495482774402</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H16" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I16" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J16" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K16" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L16" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M16" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N16" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O16" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P16" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q16" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R16" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S16" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U16" t="n">
         <v>0.01022809974912044</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H17" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I17" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J17" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K17" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L17" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M17" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N17" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O17" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P17" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R17" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S17" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T17" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H18" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I18" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J18" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K18" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L18" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M18" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N18" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O18" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P18" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q18" t="n">
         <v>28.55093635377746</v>
@@ -32339,10 +32339,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S18" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U18" t="n">
         <v>0.01471495482774402</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H19" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I19" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J19" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K19" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L19" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M19" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N19" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O19" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P19" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q19" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R19" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S19" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U19" t="n">
         <v>0.01022809974912044</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H20" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I20" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J20" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K20" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L20" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M20" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N20" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O20" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P20" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R20" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S20" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T20" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H21" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I21" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J21" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K21" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L21" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M21" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N21" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O21" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P21" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q21" t="n">
         <v>28.55093635377746</v>
@@ -32576,10 +32576,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S21" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U21" t="n">
         <v>0.01471495482774402</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H22" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I22" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J22" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K22" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L22" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M22" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N22" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O22" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P22" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q22" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R22" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S22" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U22" t="n">
         <v>0.01022809974912044</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H23" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I23" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J23" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K23" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L23" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M23" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N23" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O23" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P23" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R23" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S23" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T23" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H24" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I24" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J24" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K24" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L24" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M24" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N24" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O24" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P24" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q24" t="n">
         <v>28.55093635377746</v>
@@ -32813,10 +32813,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S24" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U24" t="n">
         <v>0.01471495482774402</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H25" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I25" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J25" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K25" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L25" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M25" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N25" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O25" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P25" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q25" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R25" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S25" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U25" t="n">
         <v>0.01022809974912044</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H26" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I26" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J26" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K26" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L26" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M26" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N26" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O26" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P26" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R26" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S26" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T26" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H27" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I27" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J27" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K27" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L27" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M27" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N27" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O27" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P27" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q27" t="n">
         <v>28.55093635377746</v>
@@ -33050,10 +33050,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S27" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U27" t="n">
         <v>0.01471495482774402</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H28" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I28" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J28" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K28" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L28" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M28" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N28" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O28" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P28" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q28" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R28" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S28" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U28" t="n">
         <v>0.01022809974912044</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H29" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I29" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J29" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K29" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L29" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M29" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N29" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O29" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P29" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R29" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S29" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T29" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H30" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I30" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J30" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K30" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L30" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M30" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N30" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O30" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P30" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q30" t="n">
         <v>28.55093635377746</v>
@@ -33287,10 +33287,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S30" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U30" t="n">
         <v>0.01471495482774402</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H31" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I31" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J31" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K31" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L31" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M31" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N31" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O31" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P31" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q31" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R31" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S31" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U31" t="n">
         <v>0.01022809974912044</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H32" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I32" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J32" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K32" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L32" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M32" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N32" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O32" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P32" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R32" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S32" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T32" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H33" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I33" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J33" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K33" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L33" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M33" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N33" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O33" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P33" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q33" t="n">
         <v>28.55093635377746</v>
@@ -33524,10 +33524,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S33" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U33" t="n">
         <v>0.01471495482774402</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H34" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I34" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J34" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K34" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L34" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M34" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N34" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O34" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P34" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q34" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R34" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S34" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U34" t="n">
         <v>0.01022809974912044</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H35" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I35" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J35" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K35" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L35" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M35" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N35" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O35" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P35" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R35" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S35" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T35" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H36" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I36" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J36" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L36" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M36" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N36" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O36" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P36" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q36" t="n">
         <v>28.55093635377746</v>
@@ -33761,10 +33761,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S36" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U36" t="n">
         <v>0.01471495482774402</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H37" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I37" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J37" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K37" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L37" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M37" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N37" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O37" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P37" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q37" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R37" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S37" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U37" t="n">
         <v>0.01022809974912044</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H38" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I38" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J38" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K38" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L38" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M38" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N38" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O38" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P38" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R38" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S38" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T38" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H39" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I39" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J39" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K39" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L39" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M39" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N39" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O39" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P39" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q39" t="n">
         <v>28.55093635377746</v>
@@ -33998,10 +33998,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S39" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U39" t="n">
         <v>0.01471495482774402</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H40" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I40" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J40" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K40" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L40" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M40" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N40" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O40" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P40" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q40" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R40" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S40" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U40" t="n">
         <v>0.01022809974912044</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H41" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I41" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J41" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K41" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L41" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M41" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N41" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O41" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P41" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R41" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S41" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T41" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H42" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I42" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J42" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L42" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M42" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N42" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O42" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P42" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q42" t="n">
         <v>28.55093635377746</v>
@@ -34235,10 +34235,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S42" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U42" t="n">
         <v>0.01471495482774402</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H43" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I43" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J43" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K43" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L43" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M43" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N43" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O43" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P43" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q43" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R43" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S43" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U43" t="n">
         <v>0.01022809974912044</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4180328875687408</v>
+        <v>0.418032887568741</v>
       </c>
       <c r="H44" t="n">
-        <v>4.281179309813368</v>
+        <v>4.281179309813369</v>
       </c>
       <c r="I44" t="n">
         <v>16.1162128979939</v>
       </c>
       <c r="J44" t="n">
-        <v>35.48001879128745</v>
+        <v>35.48001879128746</v>
       </c>
       <c r="K44" t="n">
-        <v>53.17535092207225</v>
+        <v>53.17535092207227</v>
       </c>
       <c r="L44" t="n">
-        <v>65.96872490500412</v>
+        <v>65.96872490500414</v>
       </c>
       <c r="M44" t="n">
-        <v>73.40291726930471</v>
+        <v>73.40291726930474</v>
       </c>
       <c r="N44" t="n">
-        <v>74.59065321110941</v>
+        <v>74.59065321110943</v>
       </c>
       <c r="O44" t="n">
-        <v>70.43383868534774</v>
+        <v>70.43383868534775</v>
       </c>
       <c r="P44" t="n">
-        <v>60.11365177349444</v>
+        <v>60.11365177349445</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.14284898743889</v>
+        <v>45.1428489874389</v>
       </c>
       <c r="R44" t="n">
-        <v>26.25925837373994</v>
+        <v>26.25925837373995</v>
       </c>
       <c r="S44" t="n">
-        <v>9.525924425472692</v>
+        <v>9.525924425472693</v>
       </c>
       <c r="T44" t="n">
         <v>1.829938965332164</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03344263100549926</v>
+        <v>0.03344263100549927</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.223667313381709</v>
+        <v>0.2236673133817091</v>
       </c>
       <c r="H45" t="n">
         <v>2.160155368712822</v>
       </c>
       <c r="I45" t="n">
-        <v>7.700826359852702</v>
+        <v>7.700826359852703</v>
       </c>
       <c r="J45" t="n">
-        <v>21.13165612962892</v>
+        <v>21.13165612962893</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11736612620342</v>
+        <v>36.11736612620344</v>
       </c>
       <c r="L45" t="n">
-        <v>48.56425591649783</v>
+        <v>48.56425591649784</v>
       </c>
       <c r="M45" t="n">
-        <v>56.67219602658477</v>
+        <v>56.67219602658479</v>
       </c>
       <c r="N45" t="n">
-        <v>58.17214042202615</v>
+        <v>58.17214042202617</v>
       </c>
       <c r="O45" t="n">
-        <v>53.21614363604196</v>
+        <v>53.21614363604198</v>
       </c>
       <c r="P45" t="n">
-        <v>42.71064688602126</v>
+        <v>42.71064688602127</v>
       </c>
       <c r="Q45" t="n">
         <v>28.55093635377746</v>
@@ -34472,10 +34472,10 @@
         <v>13.88699336943629</v>
       </c>
       <c r="S45" t="n">
-        <v>4.15452224636639</v>
+        <v>4.154522246366391</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9015362324464495</v>
+        <v>0.9015362324464498</v>
       </c>
       <c r="U45" t="n">
         <v>0.01471495482774402</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1875151620672078</v>
+        <v>0.1875151620672079</v>
       </c>
       <c r="H46" t="n">
         <v>1.667180259106631</v>
       </c>
       <c r="I46" t="n">
-        <v>5.639092328348397</v>
+        <v>5.639092328348399</v>
       </c>
       <c r="J46" t="n">
-        <v>13.25732195815159</v>
+        <v>13.2573219581516</v>
       </c>
       <c r="K46" t="n">
-        <v>21.7858524656265</v>
+        <v>21.78585246562651</v>
       </c>
       <c r="L46" t="n">
-        <v>27.87839054951925</v>
+        <v>27.87839054951926</v>
       </c>
       <c r="M46" t="n">
         <v>29.39385399568059</v>
       </c>
       <c r="N46" t="n">
-        <v>28.69493384615738</v>
+        <v>28.69493384615739</v>
       </c>
       <c r="O46" t="n">
-        <v>26.50441581655408</v>
+        <v>26.50441581655409</v>
       </c>
       <c r="P46" t="n">
-        <v>22.67910651038302</v>
+        <v>22.67910651038303</v>
       </c>
       <c r="Q46" t="n">
         <v>15.70183779819138</v>
       </c>
       <c r="R46" t="n">
-        <v>8.431363559858271</v>
+        <v>8.431363559858273</v>
       </c>
       <c r="S46" t="n">
-        <v>3.267877869843975</v>
+        <v>3.267877869843976</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8012011470144332</v>
+        <v>0.8012011470144335</v>
       </c>
       <c r="U46" t="n">
         <v>0.01022809974912044</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="M11" t="n">
         <v>77.25202564291784</v>
       </c>
       <c r="N11" t="n">
-        <v>77.25202564291784</v>
+        <v>1.271777909293192</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>36.47253820914892</v>
       </c>
       <c r="P11" t="n">
-        <v>74.13073167754743</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>36.38641555910534</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35462,19 +35462,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.81456788835897</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.04691076165878</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6728168054977</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>34.73749044622502</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>47.74162316609636</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>72.95481388232028</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>13.89327962704985</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15.08671008445112</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>35.19790638274428</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>70.95473978359806</v>
       </c>
       <c r="L13" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>23.46370577594836</v>
       </c>
       <c r="N13" t="n">
         <v>77.25202564291784</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>61.21600385644764</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.25202564291784</v>
+        <v>37.43079809629214</v>
       </c>
       <c r="R13" t="n">
-        <v>3.3632898437062</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>37.65819346839852</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="M14" t="n">
-        <v>37.65819346839852</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="N14" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>36.47253820914891</v>
+        <v>36.47253820914892</v>
       </c>
       <c r="P14" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>77.25202564291786</v>
@@ -35699,13 +35699,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.40843553826518</v>
+        <v>29.81456788835902</v>
       </c>
       <c r="C15" t="n">
-        <v>19.04691076165878</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>47.39274720944616</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>57.03352562101075</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="N15" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35781,41 +35781,41 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.10788131405241</v>
       </c>
       <c r="D16" t="n">
-        <v>61.38241203531399</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.63818006757805</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.86936232014694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.86471214439374</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="L16" t="n">
+        <v>30.47733856721559</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>77.25202564291786</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>22.81200324554097</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.3632898437062</v>
+        <v>3.363289843706259</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>77.25202564291786</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.11405146093254</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>77.25202564291786</v>
+        <v>74.13073167754743</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36100,7 +36100,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1243041835395502</v>
+        <v>0.124304183539607</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>74.13073167754743</v>
       </c>
       <c r="J20" t="n">
-        <v>74.13073167754743</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,16 +36130,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>77.25202564291786</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>77.25202564291786</v>
       </c>
       <c r="U20" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1243041835395502</v>
+        <v>0.124304183539607</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>57.1140514609326</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>74.13073167754743</v>
       </c>
       <c r="T23" t="n">
         <v>77.25202564291786</v>
@@ -36391,7 +36391,7 @@
         <v>77.25202564291786</v>
       </c>
       <c r="V23" t="n">
-        <v>17.01668021661482</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>137.0649234278555</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5982615209323</v>
+        <v>207.5982615209322</v>
       </c>
       <c r="L26" t="n">
         <v>261.8644671979331</v>
@@ -36604,19 +36604,19 @@
         <v>296.551583963009</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9938241698558</v>
+        <v>290.9938241698557</v>
       </c>
       <c r="O26" t="n">
         <v>249.3588397367704</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4212613748079</v>
+        <v>199.4212613748078</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3963228158503</v>
+        <v>124.3963228158505</v>
       </c>
       <c r="R26" t="n">
-        <v>18.71544384581317</v>
+        <v>18.71544384581289</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.32428416163643</v>
+        <v>39.32428416163644</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>119.8324563416929</v>
       </c>
       <c r="M27" t="n">
         <v>185.0455559517224</v>
       </c>
       <c r="N27" t="n">
-        <v>187.3086701512919</v>
+        <v>153.10195772882</v>
       </c>
       <c r="O27" t="n">
         <v>134.4715083051405</v>
       </c>
       <c r="P27" t="n">
-        <v>85.62574391921765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.70365127691082</v>
+        <v>67.70365127691079</v>
       </c>
       <c r="E28" t="n">
-        <v>71.21016031539654</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.040469449324383</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>169.0294332166961</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.09427436667193</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.684529085303028</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>207.5982615209322</v>
       </c>
       <c r="L29" t="n">
-        <v>261.864467197933</v>
+        <v>261.8644671979334</v>
       </c>
       <c r="M29" t="n">
         <v>296.551583963009</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>18.08384405794819</v>
+        <v>39.32428416163644</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>119.8324563416929</v>
       </c>
       <c r="M30" t="n">
         <v>185.0455559517224</v>
       </c>
       <c r="N30" t="n">
-        <v>208.5491102549822</v>
+        <v>67.47621380959107</v>
       </c>
       <c r="O30" t="n">
         <v>134.4715083051405</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.42912055564912</v>
+        <v>7.058139494659667</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.18595138599045</v>
+        <v>48.18595138599042</v>
       </c>
       <c r="J31" t="n">
-        <v>56.0237381852957</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.4889936129572</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.09427436667187</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0649234278555</v>
+        <v>137.0649234278554</v>
       </c>
       <c r="K32" t="n">
         <v>207.5982615209322</v>
@@ -37078,7 +37078,7 @@
         <v>296.551583963009</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9938241698559</v>
+        <v>290.9938241698557</v>
       </c>
       <c r="O32" t="n">
         <v>249.3588397367704</v>
@@ -37087,10 +37087,10 @@
         <v>199.4212613748078</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3963228158503</v>
+        <v>124.3963228158502</v>
       </c>
       <c r="R32" t="n">
-        <v>18.71544384581289</v>
+        <v>18.71544384581284</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.32428416163643</v>
+        <v>39.32428416163644</v>
       </c>
       <c r="L33" t="n">
         <v>119.8324563416929</v>
       </c>
       <c r="M33" t="n">
-        <v>43.97265950634014</v>
+        <v>185.0455559517224</v>
       </c>
       <c r="N33" t="n">
         <v>208.5491102549822</v>
       </c>
       <c r="O33" t="n">
-        <v>134.4715083051405</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.62574391921765</v>
+        <v>79.02435577896465</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.42912055564915</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.70365127691079</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.18595138599048</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>74.41436127505652</v>
+        <v>181.4889936129572</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>55.24409088065009</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>158.2877485342428</v>
+        <v>158.2877485342429</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>228.8210866273196</v>
       </c>
       <c r="L35" t="n">
         <v>283.0872923043204</v>
       </c>
       <c r="M35" t="n">
-        <v>312.0578855197852</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N35" t="n">
-        <v>312.2166492762431</v>
+        <v>78.10752264223423</v>
       </c>
       <c r="O35" t="n">
-        <v>36.47253820914891</v>
+        <v>270.5816648431578</v>
       </c>
       <c r="P35" t="n">
-        <v>220.6440864811952</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.6191479222376</v>
+        <v>84.93741099287931</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.93826895220027</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.849944281422564</v>
       </c>
       <c r="T35" t="n">
         <v>11.69277119935299</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>43.11171904677261</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -37409,10 +37409,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>42.6307744324353</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4809446143373076</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>18.45857814984008</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>92.43203443609723</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>107.0276962325818</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>33.05423994632462</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>158.2877485342428</v>
+        <v>158.2877485342429</v>
       </c>
       <c r="K38" t="n">
         <v>228.8210866273196</v>
       </c>
       <c r="L38" t="n">
-        <v>269.1937686085857</v>
+        <v>48.97816567031157</v>
       </c>
       <c r="M38" t="n">
         <v>317.7744090693964</v>
@@ -37555,19 +37555,19 @@
         <v>312.2166492762431</v>
       </c>
       <c r="O38" t="n">
-        <v>36.47253820914891</v>
+        <v>199.1752071969795</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>12.11852358607446</v>
       </c>
       <c r="Q38" t="n">
         <v>145.6191479222376</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>38.54446608294605</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.849944281422564</v>
       </c>
       <c r="T38" t="n">
         <v>11.69277119935299</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>43.11171904677261</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.32428416163644</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3.787434885136165</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>98.49880413158223</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>125.4862743824218</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.9874702508396</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>158.2877485342428</v>
+        <v>158.2877485342429</v>
       </c>
       <c r="K41" t="n">
         <v>228.8210866273196</v>
       </c>
       <c r="L41" t="n">
-        <v>283.0872923043204</v>
+        <v>48.97816567031157</v>
       </c>
       <c r="M41" t="n">
-        <v>317.7744090693963</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N41" t="n">
-        <v>78.10752264223422</v>
+        <v>312.2166492762431</v>
       </c>
       <c r="O41" t="n">
-        <v>174.8132583070428</v>
+        <v>36.47253820914892</v>
       </c>
       <c r="P41" t="n">
         <v>220.6440864811952</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>138.3407200978938</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.849944281422534</v>
+        <v>6.849944281422593</v>
       </c>
       <c r="T41" t="n">
-        <v>11.69277119935296</v>
+        <v>11.69277119935302</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.31550685223446</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>43.11171904677251</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37898,7 +37898,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>16.79621219453824</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.42821212041738</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>28.05806226200455</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>107.3170994730593</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.16917490936239</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>158.2877485342428</v>
+        <v>158.2877485342429</v>
       </c>
       <c r="K44" t="n">
-        <v>228.8210866273196</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>283.0872923043204</v>
+        <v>283.0872923043205</v>
       </c>
       <c r="M44" t="n">
-        <v>317.7744090693963</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N44" t="n">
-        <v>312.2166492762431</v>
+        <v>78.10752264223423</v>
       </c>
       <c r="O44" t="n">
-        <v>36.47253820914891</v>
+        <v>258.0151970121244</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>220.6440864811952</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.78735527430266</v>
+        <v>145.6191479222377</v>
       </c>
       <c r="R44" t="n">
-        <v>39.93826895220023</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.849944281422593</v>
       </c>
       <c r="T44" t="n">
-        <v>11.69277119935296</v>
+        <v>11.69277119935302</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38081,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>43.11171904677271</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>43.11171904677251</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.632124735414891</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>60.51141193814537</v>
       </c>
       <c r="O46" t="n">
-        <v>117.854149647007</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.97486244427634</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
